--- a/Percents_otherRNAs_together.xlsx
+++ b/Percents_otherRNAs_together.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27510"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carriewright/Documents/miRNA seq Projects/Kit_comparison_May22/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carrie\Documents\GitHub\miRNA_Kit_Comparison\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5360" yWindow="460" windowWidth="43300" windowHeight="23600" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="5355" yWindow="465" windowWidth="43305" windowHeight="23595" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Percents_together.txt" sheetId="1" r:id="rId1"/>
@@ -17,9 +17,6 @@
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -28,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="153">
   <si>
     <t>directional_deduped_lib_align_seed15_10_bam2fastq.log</t>
   </si>
@@ -463,6 +460,30 @@
   </si>
   <si>
     <t>miRNA</t>
+  </si>
+  <si>
+    <t>Kit</t>
+  </si>
+  <si>
+    <t>Deduped</t>
+  </si>
+  <si>
+    <t>Fivepercent</t>
+  </si>
+  <si>
+    <t>Five_double</t>
+  </si>
+  <si>
+    <t>Clontech</t>
+  </si>
+  <si>
+    <t>Illumina</t>
+  </si>
+  <si>
+    <t>NEB</t>
+  </si>
+  <si>
+    <t>NEXTflex</t>
   </si>
 </sst>
 </file>
@@ -509,6 +530,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -783,13 +807,13 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="51" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>129</v>
       </c>
@@ -839,7 +863,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -889,7 +913,7 @@
         <v>75.430000000000007</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -939,7 +963,7 @@
         <v>77.03</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -989,7 +1013,7 @@
         <v>77.33</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1039,7 +1063,7 @@
         <v>75.75</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1089,7 +1113,7 @@
         <v>76.38</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1139,7 +1163,7 @@
         <v>76.94</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1189,7 +1213,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1239,7 +1263,7 @@
         <v>75.989999999999995</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1289,7 +1313,7 @@
         <v>77.03</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1339,7 +1363,7 @@
         <v>78.37</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1389,7 +1413,7 @@
         <v>78.319999999999993</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -1439,7 +1463,7 @@
         <v>79.39</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1489,7 +1513,7 @@
         <v>76.3</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -1539,7 +1563,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -1589,7 +1613,7 @@
         <v>77.89</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -1639,7 +1663,7 @@
         <v>77.62</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -1689,7 +1713,7 @@
         <v>75.81</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -1739,7 +1763,7 @@
         <v>75.19</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -1789,7 +1813,7 @@
         <v>77.150000000000006</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -1839,7 +1863,7 @@
         <v>77.63</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -1889,7 +1913,7 @@
         <v>78.349999999999994</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -1939,7 +1963,7 @@
         <v>85.93</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -1989,7 +2013,7 @@
         <v>86.53</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -2039,7 +2063,7 @@
         <v>86.31</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -2089,7 +2113,7 @@
         <v>86.22</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -2139,7 +2163,7 @@
         <v>85.95</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -2189,7 +2213,7 @@
         <v>86.4</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -2239,7 +2263,7 @@
         <v>85.17</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -2289,7 +2313,7 @@
         <v>85.31</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -2339,7 +2363,7 @@
         <v>86.1</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -2389,7 +2413,7 @@
         <v>86.37</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -2439,7 +2463,7 @@
         <v>86.94</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -2489,7 +2513,7 @@
         <v>87.48</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -2539,7 +2563,7 @@
         <v>86.24</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -2589,7 +2613,7 @@
         <v>85.2</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -2639,7 +2663,7 @@
         <v>85.36</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -2689,7 +2713,7 @@
         <v>86.93</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -2739,7 +2763,7 @@
         <v>86.59</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -2789,7 +2813,7 @@
         <v>85.86</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>39</v>
       </c>
@@ -2839,7 +2863,7 @@
         <v>46.48</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>40</v>
       </c>
@@ -2889,7 +2913,7 @@
         <v>47.84</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>41</v>
       </c>
@@ -2939,7 +2963,7 @@
         <v>49.18</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>42</v>
       </c>
@@ -2989,7 +3013,7 @@
         <v>52.8</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>43</v>
       </c>
@@ -3039,7 +3063,7 @@
         <v>48.21</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>44</v>
       </c>
@@ -3089,7 +3113,7 @@
         <v>55.84</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>45</v>
       </c>
@@ -3139,7 +3163,7 @@
         <v>41.25</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>46</v>
       </c>
@@ -3189,7 +3213,7 @@
         <v>49.76</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>47</v>
       </c>
@@ -3239,7 +3263,7 @@
         <v>55.74</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>48</v>
       </c>
@@ -3289,7 +3313,7 @@
         <v>45.32</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>49</v>
       </c>
@@ -3339,7 +3363,7 @@
         <v>56.89</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>50</v>
       </c>
@@ -3389,7 +3413,7 @@
         <v>53.89</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>51</v>
       </c>
@@ -3439,7 +3463,7 @@
         <v>44.7</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>52</v>
       </c>
@@ -3489,7 +3513,7 @@
         <v>29.34</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>53</v>
       </c>
@@ -3539,7 +3563,7 @@
         <v>18.97</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>54</v>
       </c>
@@ -3589,7 +3613,7 @@
         <v>49.47</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>55</v>
       </c>
@@ -3639,7 +3663,7 @@
         <v>49.08</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>56</v>
       </c>
@@ -3689,7 +3713,7 @@
         <v>44.66</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>57</v>
       </c>
@@ -3739,7 +3763,7 @@
         <v>43.5</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>58</v>
       </c>
@@ -3789,7 +3813,7 @@
         <v>55.64</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>59</v>
       </c>
@@ -3839,7 +3863,7 @@
         <v>57.69</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>60</v>
       </c>
@@ -3889,7 +3913,7 @@
         <v>3.52</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>61</v>
       </c>
@@ -3939,7 +3963,7 @@
         <v>3.31</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>62</v>
       </c>
@@ -3989,7 +4013,7 @@
         <v>3.16</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>63</v>
       </c>
@@ -4039,7 +4063,7 @@
         <v>54.16</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>64</v>
       </c>
@@ -4089,7 +4113,7 @@
         <v>38.909999999999997</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>65</v>
       </c>
@@ -4139,7 +4163,7 @@
         <v>56.29</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>66</v>
       </c>
@@ -4189,7 +4213,7 @@
         <v>48.54</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>67</v>
       </c>
@@ -4239,7 +4263,7 @@
         <v>49.6</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>68</v>
       </c>
@@ -4289,7 +4313,7 @@
         <v>47.61</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>69</v>
       </c>
@@ -4339,7 +4363,7 @@
         <v>43.5</v>
       </c>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>70</v>
       </c>
@@ -4389,7 +4413,7 @@
         <v>55.6</v>
       </c>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>71</v>
       </c>
@@ -4439,7 +4463,7 @@
         <v>57.65</v>
       </c>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>72</v>
       </c>
@@ -4489,7 +4513,7 @@
         <v>1.91</v>
       </c>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>73</v>
       </c>
@@ -4539,7 +4563,7 @@
         <v>2.17</v>
       </c>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>74</v>
       </c>
@@ -4589,7 +4613,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>75</v>
       </c>
@@ -4639,7 +4663,7 @@
         <v>2.39</v>
       </c>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>76</v>
       </c>
@@ -4689,7 +4713,7 @@
         <v>2.08</v>
       </c>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>77</v>
       </c>
@@ -4739,7 +4763,7 @@
         <v>2.17</v>
       </c>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>78</v>
       </c>
@@ -4789,7 +4813,7 @@
         <v>2.42</v>
       </c>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>79</v>
       </c>
@@ -4839,7 +4863,7 @@
         <v>2.16</v>
       </c>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>80</v>
       </c>
@@ -4889,7 +4913,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>81</v>
       </c>
@@ -4939,7 +4963,7 @@
         <v>1.77</v>
       </c>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>82</v>
       </c>
@@ -4989,7 +5013,7 @@
         <v>1.85</v>
       </c>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>83</v>
       </c>
@@ -5039,7 +5063,7 @@
         <v>1.67</v>
       </c>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>84</v>
       </c>
@@ -5089,7 +5113,7 @@
         <v>1.78</v>
       </c>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>85</v>
       </c>
@@ -5139,7 +5163,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>86</v>
       </c>
@@ -5189,7 +5213,7 @@
         <v>1.87</v>
       </c>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>87</v>
       </c>
@@ -5239,7 +5263,7 @@
         <v>2.3199999999999998</v>
       </c>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>88</v>
       </c>
@@ -5289,7 +5313,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>89</v>
       </c>
@@ -5339,7 +5363,7 @@
         <v>2.0299999999999998</v>
       </c>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>90</v>
       </c>
@@ -5389,7 +5413,7 @@
         <v>33.17</v>
       </c>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>91</v>
       </c>
@@ -5439,7 +5463,7 @@
         <v>32.700000000000003</v>
       </c>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>92</v>
       </c>
@@ -5489,7 +5513,7 @@
         <v>32.590000000000003</v>
       </c>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>93</v>
       </c>
@@ -5539,7 +5563,7 @@
         <v>32.200000000000003</v>
       </c>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>94</v>
       </c>
@@ -5589,7 +5613,7 @@
         <v>32.909999999999997</v>
       </c>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>95</v>
       </c>
@@ -5639,7 +5663,7 @@
         <v>32.119999999999997</v>
       </c>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>96</v>
       </c>
@@ -5689,7 +5713,7 @@
         <v>33.6</v>
       </c>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>97</v>
       </c>
@@ -5739,7 +5763,7 @@
         <v>32.67</v>
       </c>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>98</v>
       </c>
@@ -5789,7 +5813,7 @@
         <v>34.07</v>
       </c>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>99</v>
       </c>
@@ -5839,7 +5863,7 @@
         <v>46.68</v>
       </c>
     </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>100</v>
       </c>
@@ -5889,7 +5913,7 @@
         <v>46.97</v>
       </c>
     </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>101</v>
       </c>
@@ -5939,7 +5963,7 @@
         <v>46.75</v>
       </c>
     </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>102</v>
       </c>
@@ -5989,7 +6013,7 @@
         <v>35.26</v>
       </c>
     </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>103</v>
       </c>
@@ -6039,7 +6063,7 @@
         <v>40.94</v>
       </c>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>104</v>
       </c>
@@ -6089,7 +6113,7 @@
         <v>14.43</v>
       </c>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>105</v>
       </c>
@@ -6139,7 +6163,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>106</v>
       </c>
@@ -6189,7 +6213,7 @@
         <v>34.83</v>
       </c>
     </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>107</v>
       </c>
@@ -6239,7 +6263,7 @@
         <v>40.590000000000003</v>
       </c>
     </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>108</v>
       </c>
@@ -6289,7 +6313,7 @@
         <v>48.12</v>
       </c>
     </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>109</v>
       </c>
@@ -6339,7 +6363,7 @@
         <v>45.27</v>
       </c>
     </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>110</v>
       </c>
@@ -6389,7 +6413,7 @@
         <v>41.01</v>
       </c>
     </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>111</v>
       </c>
@@ -6436,7 +6460,7 @@
         <v>45.96</v>
       </c>
     </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>112</v>
       </c>
@@ -6483,7 +6507,7 @@
         <v>47.37</v>
       </c>
     </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>113</v>
       </c>
@@ -6530,7 +6554,7 @@
         <v>48.71</v>
       </c>
     </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>114</v>
       </c>
@@ -6577,7 +6601,7 @@
         <v>52.28</v>
       </c>
     </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>115</v>
       </c>
@@ -6624,7 +6648,7 @@
         <v>47.7</v>
       </c>
     </row>
-    <row r="118" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>116</v>
       </c>
@@ -6671,7 +6695,7 @@
         <v>55.25</v>
       </c>
     </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>117</v>
       </c>
@@ -6718,7 +6742,7 @@
         <v>40.81</v>
       </c>
     </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>118</v>
       </c>
@@ -6765,7 +6789,7 @@
         <v>49.22</v>
       </c>
     </row>
-    <row r="121" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>119</v>
       </c>
@@ -6812,7 +6836,7 @@
         <v>55.13</v>
       </c>
     </row>
-    <row r="122" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>120</v>
       </c>
@@ -6859,7 +6883,7 @@
         <v>44.92</v>
       </c>
     </row>
-    <row r="123" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>121</v>
       </c>
@@ -6906,7 +6930,7 @@
         <v>56.38</v>
       </c>
     </row>
-    <row r="124" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>122</v>
       </c>
@@ -6953,7 +6977,7 @@
         <v>53.25</v>
       </c>
     </row>
-    <row r="125" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>123</v>
       </c>
@@ -7000,7 +7024,7 @@
         <v>44.26</v>
       </c>
     </row>
-    <row r="126" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>124</v>
       </c>
@@ -7047,7 +7071,7 @@
         <v>29.05</v>
       </c>
     </row>
-    <row r="127" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>125</v>
       </c>
@@ -7094,7 +7118,7 @@
         <v>18.8</v>
       </c>
     </row>
-    <row r="128" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>126</v>
       </c>
@@ -7141,7 +7165,7 @@
         <v>49.05</v>
       </c>
     </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>127</v>
       </c>
@@ -7188,7 +7212,7 @@
         <v>48.54</v>
       </c>
     </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>128</v>
       </c>
@@ -7242,1148 +7266,1215 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P112"/>
+  <dimension ref="A1:Q112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A56" sqref="A56:XFD67"/>
+    <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
+      <selection activeCell="A98" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="51" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>129</v>
       </c>
       <c r="B1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C1" t="s">
         <v>130</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>131</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>132</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>133</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>134</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>135</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>136</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>137</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>138</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>139</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>140</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>141</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>142</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>143</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C2">
         <v>1000</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>0.02</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>1</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>0.03</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>0.01</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>0.28999999999999998</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>0.27</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>0.02</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>3.37</v>
-      </c>
-      <c r="K2">
-        <v>3.41</v>
       </c>
       <c r="L2">
         <v>3.41</v>
       </c>
       <c r="M2">
+        <v>3.41</v>
+      </c>
+      <c r="N2">
         <v>0.08</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>11.18</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>76.010000000000005</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>75.430000000000007</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C3">
         <v>1000</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>0.01</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>1.02</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>0.03</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>0.01</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>0.26</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>0.24</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>0.02</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>3.62</v>
-      </c>
-      <c r="K3">
-        <v>3.67</v>
       </c>
       <c r="L3">
         <v>3.67</v>
       </c>
       <c r="M3">
+        <v>3.67</v>
+      </c>
+      <c r="N3">
         <v>0.08</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>11.43</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>77.599999999999994</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>77.03</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4">
+      <c r="B4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C4">
         <v>1000</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>0.02</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>1.2</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>0.03</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>0.01</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>0.25</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>0.23</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>0.02</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>3.85</v>
-      </c>
-      <c r="K4">
-        <v>3.91</v>
       </c>
       <c r="L4">
         <v>3.91</v>
       </c>
       <c r="M4">
+        <v>3.91</v>
+      </c>
+      <c r="N4">
         <v>0.08</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>11.99</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>77.86</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>77.33</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B5">
+      <c r="B5" t="s">
+        <v>146</v>
+      </c>
+      <c r="C5">
         <v>1500</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>0.02</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>0.96</v>
-      </c>
-      <c r="E5">
-        <v>0.02</v>
       </c>
       <c r="F5">
         <v>0.02</v>
       </c>
       <c r="G5">
+        <v>0.02</v>
+      </c>
+      <c r="H5">
         <v>0.31</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>0.28000000000000003</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>0.02</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>2.98</v>
-      </c>
-      <c r="K5">
-        <v>3.02</v>
       </c>
       <c r="L5">
         <v>3.02</v>
       </c>
       <c r="M5">
+        <v>3.02</v>
+      </c>
+      <c r="N5">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>10.78</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>76.3</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>75.75</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B6">
+      <c r="B6" t="s">
+        <v>146</v>
+      </c>
+      <c r="C6">
         <v>1500</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>0.02</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>0.97</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>0.04</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>0.02</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>0.28999999999999998</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>0.27</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>0.02</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>3.3</v>
-      </c>
-      <c r="K6">
-        <v>3.34</v>
       </c>
       <c r="L6">
         <v>3.34</v>
       </c>
       <c r="M6">
+        <v>3.34</v>
+      </c>
+      <c r="N6">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>11.05</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>76.900000000000006</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>76.38</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="B7">
+      <c r="B7" t="s">
+        <v>146</v>
+      </c>
+      <c r="C7">
         <v>1500</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>0.02</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>1.03</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0.02</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>0.01</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>0.28000000000000003</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>0.25</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>0.02</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>3.26</v>
-      </c>
-      <c r="K7">
-        <v>3.31</v>
       </c>
       <c r="L7">
         <v>3.31</v>
       </c>
       <c r="M7">
+        <v>3.31</v>
+      </c>
+      <c r="N7">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>11.26</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>77.459999999999994</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>76.94</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8">
+      <c r="B8" t="s">
+        <v>146</v>
+      </c>
+      <c r="C8">
         <v>2000</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>0.01</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>0.8</v>
-      </c>
-      <c r="E8">
-        <v>0.02</v>
       </c>
       <c r="F8">
         <v>0.02</v>
       </c>
       <c r="G8">
+        <v>0.02</v>
+      </c>
+      <c r="H8">
         <v>0.3</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>0.27</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>0.02</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>3.33</v>
-      </c>
-      <c r="K8">
-        <v>3.36</v>
       </c>
       <c r="L8">
         <v>3.36</v>
       </c>
       <c r="M8">
+        <v>3.36</v>
+      </c>
+      <c r="N8">
         <v>0.06</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>10.68</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>76.53</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>76</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="B9">
+      <c r="B9" t="s">
+        <v>146</v>
+      </c>
+      <c r="C9">
         <v>2000</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>0.02</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>0.88</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>0.02</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>0.01</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>0.32</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>0.28000000000000003</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>0.03</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>3.04</v>
-      </c>
-      <c r="K9">
-        <v>3.07</v>
       </c>
       <c r="L9">
         <v>3.07</v>
       </c>
       <c r="M9">
+        <v>3.07</v>
+      </c>
+      <c r="N9">
         <v>0.06</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>10.67</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>76.53</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>75.989999999999995</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
-      <c r="B10">
+      <c r="B10" t="s">
+        <v>146</v>
+      </c>
+      <c r="C10">
         <v>2000</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>0.02</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>0.87</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>0.03</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>0.01</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>0.31</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>0.27</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>0.03</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>3.14</v>
-      </c>
-      <c r="K10">
-        <v>3.17</v>
       </c>
       <c r="L10">
         <v>3.17</v>
       </c>
       <c r="M10">
+        <v>3.17</v>
+      </c>
+      <c r="N10">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>10.72</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>77.55</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>77.03</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
-      <c r="B11">
+      <c r="B11" t="s">
+        <v>146</v>
+      </c>
+      <c r="C11">
         <v>100</v>
       </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
       <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
         <v>0.63</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>0.01</v>
       </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
       <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
         <v>0.09</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>0.08</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>0.01</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>9.32</v>
-      </c>
-      <c r="K11">
-        <v>9.35</v>
       </c>
       <c r="L11">
         <v>9.35</v>
       </c>
       <c r="M11">
+        <v>9.35</v>
+      </c>
+      <c r="N11">
         <v>0.02</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>12.98</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>79.260000000000005</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>78.37</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
-      <c r="B12">
+      <c r="B12" t="s">
+        <v>146</v>
+      </c>
+      <c r="C12">
         <v>100</v>
       </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
       <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
         <v>0.65</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>0.02</v>
       </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
       <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
         <v>0.09</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>0.01</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>8.84</v>
-      </c>
-      <c r="K12">
-        <v>8.8800000000000008</v>
       </c>
       <c r="L12">
         <v>8.8800000000000008</v>
       </c>
       <c r="M12">
+        <v>8.8800000000000008</v>
+      </c>
+      <c r="N12">
         <v>0.03</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>12.57</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>79.150000000000006</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>78.319999999999993</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
-      <c r="B13">
+      <c r="B13" t="s">
+        <v>146</v>
+      </c>
+      <c r="C13">
         <v>100</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>0.01</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>0.77</v>
-      </c>
-      <c r="E13">
-        <v>0.01</v>
       </c>
       <c r="F13">
         <v>0.01</v>
       </c>
       <c r="G13">
+        <v>0.01</v>
+      </c>
+      <c r="H13">
         <v>0.09</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>0.08</v>
       </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
       <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
         <v>9.15</v>
-      </c>
-      <c r="K13">
-        <v>9.1999999999999993</v>
       </c>
       <c r="L13">
         <v>9.1999999999999993</v>
       </c>
       <c r="M13">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="N13">
         <v>0.02</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>13.18</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>80.23</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>79.39</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
-      <c r="B14">
+      <c r="B14" t="s">
+        <v>146</v>
+      </c>
+      <c r="C14">
         <v>250</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>0.01</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>1.23</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>0.03</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>0.01</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>0.18</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>0.16</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>0.02</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>4.6100000000000003</v>
-      </c>
-      <c r="K14">
-        <v>4.67</v>
       </c>
       <c r="L14">
         <v>4.67</v>
       </c>
       <c r="M14">
+        <v>4.67</v>
+      </c>
+      <c r="N14">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>12.6</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>77.010000000000005</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>76.3</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
-      <c r="B15">
+      <c r="B15" t="s">
+        <v>146</v>
+      </c>
+      <c r="C15">
         <v>250</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>0.01</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>1.02</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>0.03</v>
       </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
       <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
         <v>0.19</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>0.17</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>0.02</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>5.4</v>
-      </c>
-      <c r="K15">
-        <v>5.46</v>
       </c>
       <c r="L15">
         <v>5.46</v>
       </c>
       <c r="M15">
+        <v>5.46</v>
+      </c>
+      <c r="N15">
         <v>0.06</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>12.27</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>76.680000000000007</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>76</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
-      <c r="B16">
+      <c r="B16" t="s">
+        <v>146</v>
+      </c>
+      <c r="C16">
         <v>250</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>0.01</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>0.79</v>
-      </c>
-      <c r="E16">
-        <v>0.01</v>
       </c>
       <c r="F16">
         <v>0.01</v>
       </c>
       <c r="G16">
+        <v>0.01</v>
+      </c>
+      <c r="H16">
         <v>0.12</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>0.11</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>0.01</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>7.02</v>
-      </c>
-      <c r="K16">
-        <v>7.07</v>
       </c>
       <c r="L16">
         <v>7.07</v>
       </c>
       <c r="M16">
+        <v>7.07</v>
+      </c>
+      <c r="N16">
         <v>0.03</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>12.78</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>78.52</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>77.89</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
-      <c r="B17">
+      <c r="B17" t="s">
+        <v>146</v>
+      </c>
+      <c r="C17">
         <v>500</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>0.01</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>0.86</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>0.02</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>0.01</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>0.18</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>0.17</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>0.01</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>4.59</v>
-      </c>
-      <c r="K17">
-        <v>4.6399999999999997</v>
       </c>
       <c r="L17">
         <v>4.6399999999999997</v>
       </c>
       <c r="M17">
+        <v>4.6399999999999997</v>
+      </c>
+      <c r="N17">
         <v>0.05</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>11.54</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>78.23</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>77.62</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
-      <c r="B18">
+      <c r="B18" t="s">
+        <v>146</v>
+      </c>
+      <c r="C18">
         <v>500</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>0.01</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>1.25</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>0.03</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>0.01</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>0.22</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>0.2</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>0.02</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>3.9</v>
-      </c>
-      <c r="K18">
-        <v>3.96</v>
       </c>
       <c r="L18">
         <v>3.96</v>
       </c>
       <c r="M18">
+        <v>3.96</v>
+      </c>
+      <c r="N18">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>12.01</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>76.44</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>75.81</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
-      <c r="B19">
+      <c r="B19" t="s">
+        <v>146</v>
+      </c>
+      <c r="C19">
         <v>500</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>0.01</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>1.32</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>0.02</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>0.01</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>0.23</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>0.21</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>0.02</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>3.84</v>
-      </c>
-      <c r="K19">
-        <v>3.9</v>
       </c>
       <c r="L19">
         <v>3.9</v>
       </c>
       <c r="M19">
+        <v>3.9</v>
+      </c>
+      <c r="N19">
         <v>0.08</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>12.01</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <v>75.83</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>75.19</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>21</v>
       </c>
-      <c r="B20">
-        <v>1500</v>
+      <c r="B20" t="s">
+        <v>148</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
         <v>0.11</v>
       </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="H20">
         <v>0.04</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
         <v>12.8</v>
-      </c>
-      <c r="K20">
-        <v>12.81</v>
       </c>
       <c r="L20">
         <v>12.81</v>
       </c>
       <c r="M20">
+        <v>12.81</v>
+      </c>
+      <c r="N20">
         <v>0.01</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <v>13.28</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <v>86.29</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <v>85.93</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>22</v>
       </c>
-      <c r="B21">
-        <v>1500</v>
+      <c r="B21" t="s">
+        <v>148</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
         <v>0.14000000000000001</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>0.01</v>
       </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
       <c r="G21">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="H21">
         <v>0.04</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
         <v>12.75</v>
-      </c>
-      <c r="K21">
-        <v>12.76</v>
       </c>
       <c r="L21">
         <v>12.76</v>
       </c>
       <c r="M21">
+        <v>12.76</v>
+      </c>
+      <c r="N21">
         <v>0.02</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>13.73</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>86.88</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>86.53</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>23</v>
       </c>
-      <c r="B22">
-        <v>1500</v>
+      <c r="B22" t="s">
+        <v>148</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
         <v>0.2</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>0.01</v>
       </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
       <c r="G22">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="H22">
         <v>0.04</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
         <v>12.78</v>
-      </c>
-      <c r="K22">
-        <v>12.8</v>
       </c>
       <c r="L22">
         <v>12.8</v>
       </c>
       <c r="M22">
+        <v>12.8</v>
+      </c>
+      <c r="N22">
         <v>0.02</v>
       </c>
-      <c r="N22">
+      <c r="O22">
         <v>14.56</v>
       </c>
-      <c r="O22">
+      <c r="P22">
         <v>86.63</v>
       </c>
-      <c r="P22">
+      <c r="Q22">
         <v>86.31</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>24</v>
       </c>
-      <c r="B23">
-        <v>2000</v>
+      <c r="B23" t="s">
+        <v>148</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
         <v>0.11</v>
       </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="H23">
         <v>0.04</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="J23">
-        <v>11.48</v>
+        <v>0</v>
       </c>
       <c r="K23">
         <v>11.48</v>
@@ -8392,248 +8483,263 @@
         <v>11.48</v>
       </c>
       <c r="M23">
+        <v>11.48</v>
+      </c>
+      <c r="N23">
         <v>0.01</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <v>12.55</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <v>86.54</v>
       </c>
-      <c r="P23">
+      <c r="Q23">
         <v>86.22</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>25</v>
       </c>
-      <c r="B24">
-        <v>2000</v>
+      <c r="B24" t="s">
+        <v>148</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
         <v>0.11</v>
       </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="H24">
         <v>0.04</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
         <v>10.23</v>
-      </c>
-      <c r="K24">
-        <v>10.24</v>
       </c>
       <c r="L24">
         <v>10.24</v>
       </c>
       <c r="M24">
+        <v>10.24</v>
+      </c>
+      <c r="N24">
         <v>0.01</v>
       </c>
-      <c r="N24">
+      <c r="O24">
         <v>11.42</v>
       </c>
-      <c r="O24">
+      <c r="P24">
         <v>86.28</v>
       </c>
-      <c r="P24">
+      <c r="Q24">
         <v>85.95</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>26</v>
       </c>
-      <c r="B25">
-        <v>2000</v>
+      <c r="B25" t="s">
+        <v>148</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
         <v>0.13</v>
       </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
         <v>0.04</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>0.03</v>
       </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
       <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
         <v>10.7</v>
-      </c>
-      <c r="K25">
-        <v>10.71</v>
       </c>
       <c r="L25">
         <v>10.71</v>
       </c>
       <c r="M25">
+        <v>10.71</v>
+      </c>
+      <c r="N25">
         <v>0.01</v>
       </c>
-      <c r="N25">
+      <c r="O25">
         <v>12.41</v>
       </c>
-      <c r="O25">
+      <c r="P25">
         <v>86.71</v>
       </c>
-      <c r="P25">
+      <c r="Q25">
         <v>86.4</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>27</v>
       </c>
-      <c r="B26">
-        <v>100</v>
+      <c r="B26" t="s">
+        <v>148</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
         <v>0.08</v>
       </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
       <c r="F26">
         <v>0</v>
       </c>
       <c r="G26">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="H26">
         <v>0.04</v>
       </c>
       <c r="I26">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
         <v>9.98</v>
-      </c>
-      <c r="K26">
-        <v>9.99</v>
       </c>
       <c r="L26">
         <v>9.99</v>
       </c>
       <c r="M26">
+        <v>9.99</v>
+      </c>
+      <c r="N26">
         <v>0.01</v>
       </c>
-      <c r="N26">
+      <c r="O26">
         <v>11.13</v>
       </c>
-      <c r="O26">
+      <c r="P26">
         <v>85.51</v>
       </c>
-      <c r="P26">
+      <c r="Q26">
         <v>85.17</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>28</v>
       </c>
-      <c r="B27">
-        <v>100</v>
+      <c r="B27" t="s">
+        <v>148</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
         <v>0.08</v>
       </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
       <c r="F27">
         <v>0</v>
       </c>
       <c r="G27">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="H27">
         <v>0.04</v>
       </c>
       <c r="I27">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
         <v>8.82</v>
-      </c>
-      <c r="K27">
-        <v>8.83</v>
       </c>
       <c r="L27">
         <v>8.83</v>
       </c>
       <c r="M27">
+        <v>8.83</v>
+      </c>
+      <c r="N27">
         <v>0.01</v>
       </c>
-      <c r="N27">
+      <c r="O27">
         <v>10.73</v>
       </c>
-      <c r="O27">
+      <c r="P27">
         <v>85.61</v>
       </c>
-      <c r="P27">
+      <c r="Q27">
         <v>85.31</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>29</v>
       </c>
-      <c r="B28">
-        <v>100</v>
+      <c r="B28" t="s">
+        <v>148</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
         <v>0.09</v>
       </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
       <c r="F28">
         <v>0</v>
       </c>
       <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
         <v>0.04</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>0.03</v>
       </c>
-      <c r="I28">
-        <v>0</v>
-      </c>
       <c r="J28">
-        <v>9.6300000000000008</v>
+        <v>0</v>
       </c>
       <c r="K28">
         <v>9.6300000000000008</v>
@@ -8642,4161 +8748,4470 @@
         <v>9.6300000000000008</v>
       </c>
       <c r="M28">
+        <v>9.6300000000000008</v>
+      </c>
+      <c r="N28">
         <v>0.01</v>
       </c>
-      <c r="N28">
+      <c r="O28">
         <v>11.03</v>
       </c>
-      <c r="O28">
+      <c r="P28">
         <v>86.39</v>
       </c>
-      <c r="P28">
+      <c r="Q28">
         <v>86.1</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>30</v>
       </c>
-      <c r="B29">
-        <v>250</v>
+      <c r="B29" t="s">
+        <v>148</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
         <v>0.18</v>
       </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
       <c r="F29">
         <v>0</v>
       </c>
       <c r="G29">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H29">
         <v>0.02</v>
       </c>
       <c r="I29">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
         <v>30.14</v>
-      </c>
-      <c r="K29">
-        <v>30.15</v>
       </c>
       <c r="L29">
         <v>30.15</v>
       </c>
       <c r="M29">
-        <v>0</v>
+        <v>30.15</v>
       </c>
       <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29">
         <v>27.01</v>
       </c>
-      <c r="O29">
+      <c r="P29">
         <v>86.85</v>
       </c>
-      <c r="P29">
+      <c r="Q29">
         <v>86.37</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>31</v>
       </c>
-      <c r="B30">
-        <v>250</v>
+      <c r="B30" t="s">
+        <v>148</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
         <v>0.25</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>0.01</v>
       </c>
-      <c r="F30">
-        <v>0</v>
-      </c>
       <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
         <v>0.02</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>0.01</v>
       </c>
-      <c r="I30">
-        <v>0</v>
-      </c>
       <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
         <v>31.16</v>
-      </c>
-      <c r="K30">
-        <v>31.18</v>
       </c>
       <c r="L30">
         <v>31.18</v>
       </c>
       <c r="M30">
+        <v>31.18</v>
+      </c>
+      <c r="N30">
         <v>0.01</v>
       </c>
-      <c r="N30">
+      <c r="O30">
         <v>28.7</v>
       </c>
-      <c r="O30">
+      <c r="P30">
         <v>87.35</v>
       </c>
-      <c r="P30">
+      <c r="Q30">
         <v>86.94</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>32</v>
       </c>
-      <c r="B31">
-        <v>250</v>
+      <c r="B31" t="s">
+        <v>148</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
         <v>0.33</v>
       </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
       <c r="F31">
         <v>0</v>
       </c>
       <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
         <v>0.02</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>0.01</v>
       </c>
-      <c r="I31">
-        <v>0</v>
-      </c>
       <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
         <v>31.69</v>
-      </c>
-      <c r="K31">
-        <v>31.7</v>
       </c>
       <c r="L31">
         <v>31.7</v>
       </c>
       <c r="M31">
+        <v>31.7</v>
+      </c>
+      <c r="N31">
         <v>0.01</v>
       </c>
-      <c r="N31">
+      <c r="O31">
         <v>29.4</v>
       </c>
-      <c r="O31">
+      <c r="P31">
         <v>87.9</v>
       </c>
-      <c r="P31">
+      <c r="Q31">
         <v>87.48</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>33</v>
       </c>
-      <c r="B32">
-        <v>500</v>
+      <c r="B32" t="s">
+        <v>148</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
         <v>0.24</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>0.01</v>
       </c>
-      <c r="F32">
-        <v>0</v>
-      </c>
       <c r="G32">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="H32">
         <v>0.03</v>
       </c>
       <c r="I32">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
         <v>20.21</v>
-      </c>
-      <c r="K32">
-        <v>20.23</v>
       </c>
       <c r="L32">
         <v>20.23</v>
       </c>
       <c r="M32">
+        <v>20.23</v>
+      </c>
+      <c r="N32">
         <v>0.02</v>
       </c>
-      <c r="N32">
+      <c r="O32">
         <v>20.56</v>
       </c>
-      <c r="O32">
+      <c r="P32">
         <v>86.61</v>
       </c>
-      <c r="P32">
+      <c r="Q32">
         <v>86.24</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>34</v>
       </c>
-      <c r="B33">
-        <v>500</v>
+      <c r="B33" t="s">
+        <v>148</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
         <v>0.2</v>
       </c>
-      <c r="E33">
+      <c r="F33">
         <v>0.01</v>
       </c>
-      <c r="F33">
-        <v>0</v>
-      </c>
       <c r="G33">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="H33">
         <v>0.03</v>
       </c>
       <c r="I33">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
         <v>20.11</v>
-      </c>
-      <c r="K33">
-        <v>20.13</v>
       </c>
       <c r="L33">
         <v>20.13</v>
       </c>
       <c r="M33">
+        <v>20.13</v>
+      </c>
+      <c r="N33">
         <v>0.02</v>
       </c>
-      <c r="N33">
+      <c r="O33">
         <v>19.52</v>
       </c>
-      <c r="O33">
+      <c r="P33">
         <v>85.64</v>
       </c>
-      <c r="P33">
+      <c r="Q33">
         <v>85.2</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>35</v>
       </c>
-      <c r="B34">
-        <v>500</v>
+      <c r="B34" t="s">
+        <v>148</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
         <v>0.27</v>
       </c>
-      <c r="E34">
+      <c r="F34">
         <v>0.01</v>
       </c>
-      <c r="F34">
-        <v>0</v>
-      </c>
       <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
         <v>0.05</v>
       </c>
-      <c r="H34">
+      <c r="I34">
         <v>0.04</v>
       </c>
-      <c r="I34">
-        <v>0</v>
-      </c>
       <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
         <v>17.760000000000002</v>
-      </c>
-      <c r="K34">
-        <v>17.78</v>
       </c>
       <c r="L34">
         <v>17.78</v>
       </c>
       <c r="M34">
+        <v>17.78</v>
+      </c>
+      <c r="N34">
         <v>0.01</v>
       </c>
-      <c r="N34">
+      <c r="O34">
         <v>18.309999999999999</v>
       </c>
-      <c r="O34">
+      <c r="P34">
         <v>85.76</v>
       </c>
-      <c r="P34">
+      <c r="Q34">
         <v>85.36</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>36</v>
       </c>
-      <c r="B35">
-        <v>1000</v>
+      <c r="B35" t="s">
+        <v>148</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
         <v>0.19</v>
       </c>
-      <c r="E35">
-        <v>0</v>
-      </c>
       <c r="F35">
         <v>0</v>
       </c>
       <c r="G35">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="H35">
         <v>0.03</v>
       </c>
       <c r="I35">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
         <v>15.72</v>
-      </c>
-      <c r="K35">
-        <v>15.73</v>
       </c>
       <c r="L35">
         <v>15.73</v>
       </c>
       <c r="M35">
+        <v>15.73</v>
+      </c>
+      <c r="N35">
         <v>0.01</v>
       </c>
-      <c r="N35">
+      <c r="O35">
         <v>16.14</v>
       </c>
-      <c r="O35">
+      <c r="P35">
         <v>87.29</v>
       </c>
-      <c r="P35">
+      <c r="Q35">
         <v>86.93</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>37</v>
       </c>
-      <c r="B36">
-        <v>1000</v>
+      <c r="B36" t="s">
+        <v>148</v>
       </c>
       <c r="C36">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
         <v>0.21</v>
       </c>
-      <c r="E36">
+      <c r="F36">
         <v>0.01</v>
       </c>
-      <c r="F36">
-        <v>0</v>
-      </c>
       <c r="G36">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="H36">
         <v>0.03</v>
       </c>
       <c r="I36">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
         <v>17.45</v>
-      </c>
-      <c r="K36">
-        <v>17.46</v>
       </c>
       <c r="L36">
         <v>17.46</v>
       </c>
       <c r="M36">
+        <v>17.46</v>
+      </c>
+      <c r="N36">
         <v>0.01</v>
       </c>
-      <c r="N36">
+      <c r="O36">
         <v>17.850000000000001</v>
       </c>
-      <c r="O36">
+      <c r="P36">
         <v>86.97</v>
       </c>
-      <c r="P36">
+      <c r="Q36">
         <v>86.59</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>38</v>
       </c>
-      <c r="B37">
-        <v>1000</v>
+      <c r="B37" t="s">
+        <v>148</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
         <v>0.21</v>
       </c>
-      <c r="E37">
-        <v>0</v>
-      </c>
       <c r="F37">
         <v>0</v>
       </c>
       <c r="G37">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="H37">
         <v>0.03</v>
       </c>
       <c r="I37">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
         <v>16.670000000000002</v>
-      </c>
-      <c r="K37">
-        <v>16.68</v>
       </c>
       <c r="L37">
         <v>16.68</v>
       </c>
       <c r="M37">
+        <v>16.68</v>
+      </c>
+      <c r="N37">
         <v>0.02</v>
       </c>
-      <c r="N37">
+      <c r="O37">
         <v>17.489999999999998</v>
       </c>
-      <c r="O37">
+      <c r="P37">
         <v>86.22</v>
       </c>
-      <c r="P37">
+      <c r="Q37">
         <v>85.86</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>39</v>
       </c>
-      <c r="B38">
-        <v>1500</v>
+      <c r="B38" t="s">
+        <v>147</v>
       </c>
       <c r="C38">
+        <v>1000</v>
+      </c>
+      <c r="D38">
         <v>0.5</v>
       </c>
-      <c r="D38">
+      <c r="E38">
         <v>9.69</v>
       </c>
-      <c r="E38">
+      <c r="F38">
         <v>12.43</v>
       </c>
-      <c r="F38">
+      <c r="G38">
         <v>0.57999999999999996</v>
       </c>
-      <c r="G38">
+      <c r="H38">
         <v>1.1299999999999999</v>
       </c>
-      <c r="H38">
+      <c r="I38">
         <v>0.15</v>
       </c>
-      <c r="I38">
+      <c r="J38">
         <v>0.06</v>
       </c>
-      <c r="J38">
+      <c r="K38">
         <v>10.119999999999999</v>
-      </c>
-      <c r="K38">
-        <v>10.220000000000001</v>
       </c>
       <c r="L38">
         <v>10.220000000000001</v>
       </c>
       <c r="M38">
+        <v>10.220000000000001</v>
+      </c>
+      <c r="N38">
         <v>11.79</v>
       </c>
-      <c r="N38">
+      <c r="O38">
         <v>16.989999999999998</v>
       </c>
-      <c r="O38">
+      <c r="P38">
         <v>46.7</v>
       </c>
-      <c r="P38">
+      <c r="Q38">
         <v>46.48</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>40</v>
       </c>
-      <c r="B39">
-        <v>1500</v>
+      <c r="B39" t="s">
+        <v>147</v>
       </c>
       <c r="C39">
+        <v>1000</v>
+      </c>
+      <c r="D39">
         <v>0.48</v>
       </c>
-      <c r="D39">
+      <c r="E39">
         <v>9.32</v>
       </c>
-      <c r="E39">
+      <c r="F39">
         <v>8.31</v>
       </c>
-      <c r="F39">
+      <c r="G39">
         <v>0.63</v>
       </c>
-      <c r="G39">
+      <c r="H39">
         <v>1</v>
       </c>
-      <c r="H39">
+      <c r="I39">
         <v>0.14000000000000001</v>
       </c>
-      <c r="I39">
+      <c r="J39">
         <v>0.05</v>
       </c>
-      <c r="J39">
+      <c r="K39">
         <v>9.07</v>
-      </c>
-      <c r="K39">
-        <v>9.16</v>
       </c>
       <c r="L39">
         <v>9.16</v>
       </c>
       <c r="M39">
+        <v>9.16</v>
+      </c>
+      <c r="N39">
         <v>8</v>
       </c>
-      <c r="N39">
+      <c r="O39">
         <v>16.22</v>
       </c>
-      <c r="O39">
+      <c r="P39">
         <v>48.07</v>
       </c>
-      <c r="P39">
+      <c r="Q39">
         <v>47.84</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>41</v>
       </c>
-      <c r="B40">
-        <v>1500</v>
+      <c r="B40" t="s">
+        <v>147</v>
       </c>
       <c r="C40">
+        <v>1000</v>
+      </c>
+      <c r="D40">
         <v>0.43</v>
       </c>
-      <c r="D40">
+      <c r="E40">
         <v>11.27</v>
       </c>
-      <c r="E40">
+      <c r="F40">
         <v>9.8000000000000007</v>
       </c>
-      <c r="F40">
+      <c r="G40">
         <v>0.64</v>
       </c>
-      <c r="G40">
+      <c r="H40">
         <v>1.04</v>
       </c>
-      <c r="H40">
+      <c r="I40">
         <v>0.13</v>
       </c>
-      <c r="I40">
+      <c r="J40">
         <v>0.05</v>
       </c>
-      <c r="J40">
+      <c r="K40">
         <v>9.5399999999999991</v>
-      </c>
-      <c r="K40">
-        <v>9.66</v>
       </c>
       <c r="L40">
         <v>9.66</v>
       </c>
       <c r="M40">
+        <v>9.66</v>
+      </c>
+      <c r="N40">
         <v>9.5399999999999991</v>
       </c>
-      <c r="N40">
+      <c r="O40">
         <v>16.29</v>
       </c>
-      <c r="O40">
+      <c r="P40">
         <v>49.41</v>
       </c>
-      <c r="P40">
+      <c r="Q40">
         <v>49.18</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>42</v>
       </c>
-      <c r="B41">
-        <v>2000</v>
+      <c r="B41" t="s">
+        <v>147</v>
       </c>
       <c r="C41">
+        <v>1500</v>
+      </c>
+      <c r="D41">
         <v>0.51</v>
       </c>
-      <c r="D41">
+      <c r="E41">
         <v>9.11</v>
       </c>
-      <c r="E41">
+      <c r="F41">
         <v>9.16</v>
       </c>
-      <c r="F41">
+      <c r="G41">
         <v>0.56999999999999995</v>
       </c>
-      <c r="G41">
+      <c r="H41">
         <v>1.24</v>
       </c>
-      <c r="H41">
+      <c r="I41">
         <v>0.15</v>
       </c>
-      <c r="I41">
+      <c r="J41">
         <v>0.06</v>
       </c>
-      <c r="J41">
+      <c r="K41">
         <v>9.35</v>
-      </c>
-      <c r="K41">
-        <v>9.4499999999999993</v>
       </c>
       <c r="L41">
         <v>9.4499999999999993</v>
       </c>
       <c r="M41">
+        <v>9.4499999999999993</v>
+      </c>
+      <c r="N41">
         <v>8.66</v>
       </c>
-      <c r="N41">
+      <c r="O41">
         <v>16.16</v>
       </c>
-      <c r="O41">
+      <c r="P41">
         <v>53.04</v>
       </c>
-      <c r="P41">
+      <c r="Q41">
         <v>52.8</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>43</v>
       </c>
-      <c r="B42">
-        <v>2000</v>
+      <c r="B42" t="s">
+        <v>147</v>
       </c>
       <c r="C42">
+        <v>1500</v>
+      </c>
+      <c r="D42">
         <v>0.56000000000000005</v>
       </c>
-      <c r="D42">
+      <c r="E42">
         <v>9.94</v>
       </c>
-      <c r="E42">
+      <c r="F42">
         <v>11.75</v>
       </c>
-      <c r="F42">
+      <c r="G42">
         <v>0.56000000000000005</v>
       </c>
-      <c r="G42">
+      <c r="H42">
         <v>1.27</v>
       </c>
-      <c r="H42">
+      <c r="I42">
         <v>0.15</v>
       </c>
-      <c r="I42">
+      <c r="J42">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="J42">
+      <c r="K42">
         <v>8.8800000000000008</v>
-      </c>
-      <c r="K42">
-        <v>9</v>
       </c>
       <c r="L42">
         <v>9</v>
       </c>
       <c r="M42">
+        <v>9</v>
+      </c>
+      <c r="N42">
         <v>11.25</v>
       </c>
-      <c r="N42">
+      <c r="O42">
         <v>16.22</v>
       </c>
-      <c r="O42">
+      <c r="P42">
         <v>48.43</v>
       </c>
-      <c r="P42">
+      <c r="Q42">
         <v>48.21</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>44</v>
       </c>
-      <c r="B43">
-        <v>2000</v>
+      <c r="B43" t="s">
+        <v>147</v>
       </c>
       <c r="C43">
+        <v>1500</v>
+      </c>
+      <c r="D43">
         <v>0.44</v>
       </c>
-      <c r="D43">
+      <c r="E43">
         <v>9.82</v>
       </c>
-      <c r="E43">
+      <c r="F43">
         <v>7.04</v>
       </c>
-      <c r="F43">
+      <c r="G43">
         <v>0.59</v>
       </c>
-      <c r="G43">
+      <c r="H43">
         <v>1.1399999999999999</v>
       </c>
-      <c r="H43">
+      <c r="I43">
         <v>0.15</v>
       </c>
-      <c r="I43">
+      <c r="J43">
         <v>0.06</v>
       </c>
-      <c r="J43">
+      <c r="K43">
         <v>8.75</v>
-      </c>
-      <c r="K43">
-        <v>8.86</v>
       </c>
       <c r="L43">
         <v>8.86</v>
       </c>
       <c r="M43">
+        <v>8.86</v>
+      </c>
+      <c r="N43">
         <v>6.87</v>
       </c>
-      <c r="N43">
+      <c r="O43">
         <v>15.16</v>
       </c>
-      <c r="O43">
+      <c r="P43">
         <v>56.08</v>
       </c>
-      <c r="P43">
+      <c r="Q43">
         <v>55.84</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>45</v>
       </c>
-      <c r="B44">
-        <v>100</v>
+      <c r="B44" t="s">
+        <v>147</v>
       </c>
       <c r="C44">
+        <v>2000</v>
+      </c>
+      <c r="D44">
         <v>0.67</v>
       </c>
-      <c r="D44">
+      <c r="E44">
         <v>9.24</v>
       </c>
-      <c r="E44">
+      <c r="F44">
         <v>16.38</v>
       </c>
-      <c r="F44">
+      <c r="G44">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G44">
+      <c r="H44">
         <v>1.44</v>
       </c>
-      <c r="H44">
+      <c r="I44">
         <v>0.14000000000000001</v>
       </c>
-      <c r="I44">
+      <c r="J44">
         <v>0.08</v>
       </c>
-      <c r="J44">
+      <c r="K44">
         <v>8.5399999999999991</v>
-      </c>
-      <c r="K44">
-        <v>8.65</v>
       </c>
       <c r="L44">
         <v>8.65</v>
       </c>
       <c r="M44">
+        <v>8.65</v>
+      </c>
+      <c r="N44">
         <v>15.08</v>
       </c>
-      <c r="N44">
+      <c r="O44">
         <v>17.79</v>
       </c>
-      <c r="O44">
+      <c r="P44">
         <v>41.44</v>
       </c>
-      <c r="P44">
+      <c r="Q44">
         <v>41.25</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>46</v>
       </c>
-      <c r="B45">
-        <v>100</v>
+      <c r="B45" t="s">
+        <v>147</v>
       </c>
       <c r="C45">
+        <v>2000</v>
+      </c>
+      <c r="D45">
         <v>0.52</v>
       </c>
-      <c r="D45">
+      <c r="E45">
         <v>8.64</v>
       </c>
-      <c r="E45">
+      <c r="F45">
         <v>11.45</v>
       </c>
-      <c r="F45">
+      <c r="G45">
         <v>0.52</v>
       </c>
-      <c r="G45">
+      <c r="H45">
         <v>1.3</v>
       </c>
-      <c r="H45">
+      <c r="I45">
         <v>0.16</v>
       </c>
-      <c r="I45">
+      <c r="J45">
         <v>0.06</v>
       </c>
-      <c r="J45">
+      <c r="K45">
         <v>8.0299999999999994</v>
-      </c>
-      <c r="K45">
-        <v>8.15</v>
       </c>
       <c r="L45">
         <v>8.15</v>
       </c>
       <c r="M45">
+        <v>8.15</v>
+      </c>
+      <c r="N45">
         <v>10.63</v>
       </c>
-      <c r="N45">
+      <c r="O45">
         <v>16.07</v>
       </c>
-      <c r="O45">
+      <c r="P45">
         <v>49.97</v>
       </c>
-      <c r="P45">
+      <c r="Q45">
         <v>49.76</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>47</v>
       </c>
-      <c r="B46">
-        <v>100</v>
+      <c r="B46" t="s">
+        <v>147</v>
       </c>
       <c r="C46">
+        <v>2000</v>
+      </c>
+      <c r="D46">
         <v>0.47</v>
       </c>
-      <c r="D46">
+      <c r="E46">
         <v>8.18</v>
       </c>
-      <c r="E46">
+      <c r="F46">
         <v>8.25</v>
       </c>
-      <c r="F46">
+      <c r="G46">
         <v>0.5</v>
       </c>
-      <c r="G46">
+      <c r="H46">
         <v>1.23</v>
       </c>
-      <c r="H46">
+      <c r="I46">
         <v>0.15</v>
       </c>
-      <c r="I46">
+      <c r="J46">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="J46">
+      <c r="K46">
         <v>8.3699999999999992</v>
-      </c>
-      <c r="K46">
-        <v>8.4700000000000006</v>
       </c>
       <c r="L46">
         <v>8.4700000000000006</v>
       </c>
       <c r="M46">
+        <v>8.4700000000000006</v>
+      </c>
+      <c r="N46">
         <v>7.69</v>
       </c>
-      <c r="N46">
+      <c r="O46">
         <v>15.03</v>
       </c>
-      <c r="O46">
+      <c r="P46">
         <v>55.96</v>
       </c>
-      <c r="P46">
+      <c r="Q46">
         <v>55.74</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>48</v>
       </c>
-      <c r="B47">
-        <v>250</v>
+      <c r="B47" t="s">
+        <v>147</v>
       </c>
       <c r="C47">
+        <v>100</v>
+      </c>
+      <c r="D47">
         <v>0.39</v>
       </c>
-      <c r="D47">
+      <c r="E47">
         <v>9.5500000000000007</v>
       </c>
-      <c r="E47">
+      <c r="F47">
         <v>13.19</v>
       </c>
-      <c r="F47">
+      <c r="G47">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G47">
+      <c r="H47">
         <v>0.77</v>
       </c>
-      <c r="H47">
+      <c r="I47">
         <v>0.09</v>
       </c>
-      <c r="I47">
+      <c r="J47">
         <v>0.04</v>
       </c>
-      <c r="J47">
+      <c r="K47">
         <v>19.73</v>
-      </c>
-      <c r="K47">
-        <v>19.809999999999999</v>
       </c>
       <c r="L47">
         <v>19.809999999999999</v>
       </c>
       <c r="M47">
+        <v>19.809999999999999</v>
+      </c>
+      <c r="N47">
         <v>13.22</v>
       </c>
-      <c r="N47">
+      <c r="O47">
         <v>23.67</v>
       </c>
-      <c r="O47">
+      <c r="P47">
         <v>45.61</v>
       </c>
-      <c r="P47">
+      <c r="Q47">
         <v>45.32</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>49</v>
       </c>
-      <c r="B48">
-        <v>250</v>
+      <c r="B48" t="s">
+        <v>147</v>
       </c>
       <c r="C48">
+        <v>100</v>
+      </c>
+      <c r="D48">
         <v>0.34</v>
       </c>
-      <c r="D48">
+      <c r="E48">
         <v>10.07</v>
       </c>
-      <c r="E48">
+      <c r="F48">
         <v>5.3</v>
       </c>
-      <c r="F48">
+      <c r="G48">
         <v>0.62</v>
       </c>
-      <c r="G48">
+      <c r="H48">
         <v>0.81</v>
       </c>
-      <c r="H48">
+      <c r="I48">
         <v>0.1</v>
       </c>
-      <c r="I48">
+      <c r="J48">
         <v>0.04</v>
       </c>
-      <c r="J48">
+      <c r="K48">
         <v>22.47</v>
-      </c>
-      <c r="K48">
-        <v>22.57</v>
       </c>
       <c r="L48">
         <v>22.57</v>
       </c>
       <c r="M48">
+        <v>22.57</v>
+      </c>
+      <c r="N48">
         <v>5.31</v>
       </c>
-      <c r="N48">
+      <c r="O48">
         <v>25.47</v>
       </c>
-      <c r="O48">
+      <c r="P48">
         <v>57.2</v>
       </c>
-      <c r="P48">
+      <c r="Q48">
         <v>56.89</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>50</v>
       </c>
-      <c r="B49">
-        <v>250</v>
+      <c r="B49" t="s">
+        <v>147</v>
       </c>
       <c r="C49">
+        <v>100</v>
+      </c>
+      <c r="D49">
         <v>0.34</v>
       </c>
-      <c r="D49">
+      <c r="E49">
         <v>10.8</v>
       </c>
-      <c r="E49">
+      <c r="F49">
         <v>6.48</v>
       </c>
-      <c r="F49">
+      <c r="G49">
         <v>0.66</v>
       </c>
-      <c r="G49">
+      <c r="H49">
         <v>0.9</v>
       </c>
-      <c r="H49">
+      <c r="I49">
         <v>0.12</v>
       </c>
-      <c r="I49">
+      <c r="J49">
         <v>0.05</v>
       </c>
-      <c r="J49">
+      <c r="K49">
         <v>21.98</v>
-      </c>
-      <c r="K49">
-        <v>22.07</v>
       </c>
       <c r="L49">
         <v>22.07</v>
       </c>
       <c r="M49">
+        <v>22.07</v>
+      </c>
+      <c r="N49">
         <v>6.51</v>
       </c>
-      <c r="N49">
+      <c r="O49">
         <v>25.87</v>
       </c>
-      <c r="O49">
+      <c r="P49">
         <v>54.19</v>
       </c>
-      <c r="P49">
+      <c r="Q49">
         <v>53.89</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>51</v>
       </c>
-      <c r="B50">
-        <v>500</v>
+      <c r="B50" t="s">
+        <v>147</v>
       </c>
       <c r="C50">
+        <v>250</v>
+      </c>
+      <c r="D50">
         <v>0.42</v>
       </c>
-      <c r="D50">
+      <c r="E50">
         <v>11.87</v>
       </c>
-      <c r="E50">
+      <c r="F50">
         <v>10.33</v>
       </c>
-      <c r="F50">
+      <c r="G50">
         <v>0.64</v>
       </c>
-      <c r="G50">
+      <c r="H50">
         <v>0.88</v>
       </c>
-      <c r="H50">
+      <c r="I50">
         <v>0.12</v>
       </c>
-      <c r="I50">
+      <c r="J50">
         <v>0.04</v>
       </c>
-      <c r="J50">
+      <c r="K50">
         <v>13.19</v>
-      </c>
-      <c r="K50">
-        <v>13.3</v>
       </c>
       <c r="L50">
         <v>13.3</v>
       </c>
       <c r="M50">
+        <v>13.3</v>
+      </c>
+      <c r="N50">
         <v>10.16</v>
       </c>
-      <c r="N50">
+      <c r="O50">
         <v>19.989999999999998</v>
       </c>
-      <c r="O50">
+      <c r="P50">
         <v>44.93</v>
       </c>
-      <c r="P50">
+      <c r="Q50">
         <v>44.7</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>52</v>
       </c>
-      <c r="B51">
-        <v>500</v>
+      <c r="B51" t="s">
+        <v>147</v>
       </c>
       <c r="C51">
+        <v>250</v>
+      </c>
+      <c r="D51">
         <v>0.54</v>
       </c>
-      <c r="D51">
+      <c r="E51">
         <v>10.27</v>
       </c>
-      <c r="E51">
+      <c r="F51">
         <v>21.73</v>
       </c>
-      <c r="F51">
+      <c r="G51">
         <v>0.57999999999999996</v>
       </c>
-      <c r="G51">
+      <c r="H51">
         <v>0.91</v>
       </c>
-      <c r="H51">
+      <c r="I51">
         <v>0.1</v>
       </c>
-      <c r="I51">
+      <c r="J51">
         <v>0.05</v>
       </c>
-      <c r="J51">
+      <c r="K51">
         <v>11.64</v>
-      </c>
-      <c r="K51">
-        <v>11.72</v>
       </c>
       <c r="L51">
         <v>11.72</v>
       </c>
       <c r="M51">
+        <v>11.72</v>
+      </c>
+      <c r="N51">
         <v>21.31</v>
       </c>
-      <c r="N51">
+      <c r="O51">
         <v>19.61</v>
       </c>
-      <c r="O51">
+      <c r="P51">
         <v>29.52</v>
       </c>
-      <c r="P51">
+      <c r="Q51">
         <v>29.34</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>53</v>
       </c>
-      <c r="B52">
-        <v>500</v>
+      <c r="B52" t="s">
+        <v>147</v>
       </c>
       <c r="C52">
+        <v>250</v>
+      </c>
+      <c r="D52">
         <v>0.66</v>
       </c>
-      <c r="D52">
+      <c r="E52">
         <v>10.72</v>
       </c>
-      <c r="E52">
+      <c r="F52">
         <v>13.5</v>
       </c>
-      <c r="F52">
+      <c r="G52">
         <v>0.5</v>
       </c>
-      <c r="G52">
+      <c r="H52">
         <v>0.79</v>
       </c>
-      <c r="H52">
+      <c r="I52">
         <v>0.09</v>
       </c>
-      <c r="I52">
+      <c r="J52">
         <v>0.03</v>
       </c>
-      <c r="J52">
+      <c r="K52">
         <v>7.2</v>
-      </c>
-      <c r="K52">
-        <v>7.26</v>
       </c>
       <c r="L52">
         <v>7.26</v>
       </c>
       <c r="M52">
+        <v>7.26</v>
+      </c>
+      <c r="N52">
         <v>13.26</v>
       </c>
-      <c r="N52">
+      <c r="O52">
         <v>12.76</v>
       </c>
-      <c r="O52">
+      <c r="P52">
         <v>19.09</v>
       </c>
-      <c r="P52">
+      <c r="Q52">
         <v>18.97</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>54</v>
       </c>
-      <c r="B53">
-        <v>1000</v>
+      <c r="B53" t="s">
+        <v>147</v>
       </c>
       <c r="C53">
+        <v>500</v>
+      </c>
+      <c r="D53">
         <v>0.44</v>
       </c>
-      <c r="D53">
+      <c r="E53">
         <v>10.62</v>
       </c>
-      <c r="E53">
+      <c r="F53">
         <v>10.06</v>
       </c>
-      <c r="F53">
+      <c r="G53">
         <v>0.62</v>
       </c>
-      <c r="G53">
+      <c r="H53">
         <v>1.02</v>
       </c>
-      <c r="H53">
+      <c r="I53">
         <v>0.12</v>
       </c>
-      <c r="I53">
+      <c r="J53">
         <v>0.05</v>
       </c>
-      <c r="J53">
+      <c r="K53">
         <v>11.82</v>
-      </c>
-      <c r="K53">
-        <v>11.93</v>
       </c>
       <c r="L53">
         <v>11.93</v>
       </c>
       <c r="M53">
+        <v>11.93</v>
+      </c>
+      <c r="N53">
         <v>9.85</v>
       </c>
-      <c r="N53">
+      <c r="O53">
         <v>17.93</v>
       </c>
-      <c r="O53">
+      <c r="P53">
         <v>49.71</v>
       </c>
-      <c r="P53">
+      <c r="Q53">
         <v>49.47</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>55</v>
       </c>
-      <c r="B54">
-        <v>1000</v>
+      <c r="B54" t="s">
+        <v>147</v>
       </c>
       <c r="C54">
+        <v>500</v>
+      </c>
+      <c r="D54">
         <v>0.43</v>
       </c>
-      <c r="D54">
+      <c r="E54">
         <v>11.39</v>
       </c>
-      <c r="E54">
+      <c r="F54">
         <v>9.24</v>
       </c>
-      <c r="F54">
+      <c r="G54">
         <v>0.68</v>
       </c>
-      <c r="G54">
+      <c r="H54">
         <v>0.95</v>
       </c>
-      <c r="H54">
+      <c r="I54">
         <v>0.13</v>
       </c>
-      <c r="I54">
+      <c r="J54">
         <v>0.05</v>
       </c>
-      <c r="J54">
+      <c r="K54">
         <v>12.5</v>
-      </c>
-      <c r="K54">
-        <v>12.62</v>
       </c>
       <c r="L54">
         <v>12.62</v>
       </c>
       <c r="M54">
+        <v>12.62</v>
+      </c>
+      <c r="N54">
         <v>9.16</v>
       </c>
-      <c r="N54">
+      <c r="O54">
         <v>18.46</v>
       </c>
-      <c r="O54">
+      <c r="P54">
         <v>49.34</v>
       </c>
-      <c r="P54">
+      <c r="Q54">
         <v>49.08</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>56</v>
       </c>
-      <c r="B55">
-        <v>1000</v>
+      <c r="B55" t="s">
+        <v>147</v>
       </c>
       <c r="C55">
+        <v>500</v>
+      </c>
+      <c r="D55">
         <v>0.43</v>
       </c>
-      <c r="D55">
+      <c r="E55">
         <v>12.15</v>
       </c>
-      <c r="E55">
+      <c r="F55">
         <v>11.31</v>
       </c>
-      <c r="F55">
+      <c r="G55">
         <v>0.66</v>
       </c>
-      <c r="G55">
+      <c r="H55">
         <v>0.96</v>
       </c>
-      <c r="H55">
+      <c r="I55">
         <v>0.13</v>
       </c>
-      <c r="I55">
+      <c r="J55">
         <v>0.05</v>
       </c>
-      <c r="J55">
+      <c r="K55">
         <v>11.58</v>
-      </c>
-      <c r="K55">
-        <v>11.68</v>
       </c>
       <c r="L55">
         <v>11.68</v>
       </c>
       <c r="M55">
+        <v>11.68</v>
+      </c>
+      <c r="N55">
         <v>11.09</v>
       </c>
-      <c r="N55">
+      <c r="O55">
         <v>18.45</v>
       </c>
-      <c r="O55">
+      <c r="P55">
         <v>44.89</v>
       </c>
-      <c r="P55">
+      <c r="Q55">
         <v>44.66</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>72</v>
       </c>
-      <c r="B56">
+      <c r="B56" t="s">
+        <v>149</v>
+      </c>
+      <c r="C56">
         <v>1000</v>
       </c>
-      <c r="C56">
+      <c r="D56">
         <v>5.68</v>
       </c>
-      <c r="D56">
+      <c r="E56">
         <v>31.68</v>
       </c>
-      <c r="E56">
+      <c r="F56">
         <v>2.04</v>
       </c>
-      <c r="F56">
+      <c r="G56">
         <v>1.64</v>
       </c>
-      <c r="G56">
+      <c r="H56">
         <v>3.88</v>
       </c>
-      <c r="H56">
+      <c r="I56">
         <v>0.49</v>
       </c>
-      <c r="I56">
+      <c r="J56">
         <v>0.05</v>
       </c>
-      <c r="J56">
+      <c r="K56">
         <v>1.0900000000000001</v>
-      </c>
-      <c r="K56">
-        <v>1.1499999999999999</v>
       </c>
       <c r="L56">
         <v>1.1499999999999999</v>
       </c>
       <c r="M56">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="N56">
         <v>2.4900000000000002</v>
       </c>
-      <c r="N56">
+      <c r="O56">
         <v>14.03</v>
       </c>
-      <c r="O56">
+      <c r="P56">
         <v>2.0299999999999998</v>
       </c>
-      <c r="P56">
+      <c r="Q56">
         <v>1.91</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>73</v>
       </c>
-      <c r="B57">
+      <c r="B57" t="s">
+        <v>149</v>
+      </c>
+      <c r="C57">
         <v>1000</v>
       </c>
-      <c r="C57">
+      <c r="D57">
         <v>4.87</v>
       </c>
-      <c r="D57">
+      <c r="E57">
         <v>31.04</v>
       </c>
-      <c r="E57">
+      <c r="F57">
         <v>2.2799999999999998</v>
       </c>
-      <c r="F57">
+      <c r="G57">
         <v>1.45</v>
       </c>
-      <c r="G57">
+      <c r="H57">
         <v>3.41</v>
       </c>
-      <c r="H57">
+      <c r="I57">
         <v>0.4</v>
       </c>
-      <c r="I57">
+      <c r="J57">
         <v>0.05</v>
       </c>
-      <c r="J57">
+      <c r="K57">
         <v>1.26</v>
-      </c>
-      <c r="K57">
-        <v>1.32</v>
       </c>
       <c r="L57">
         <v>1.32</v>
       </c>
       <c r="M57">
+        <v>1.32</v>
+      </c>
+      <c r="N57">
         <v>2.71</v>
       </c>
-      <c r="N57">
+      <c r="O57">
         <v>13.17</v>
       </c>
-      <c r="O57">
+      <c r="P57">
         <v>2.29</v>
       </c>
-      <c r="P57">
+      <c r="Q57">
         <v>2.17</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>74</v>
       </c>
-      <c r="B58">
+      <c r="B58" t="s">
+        <v>149</v>
+      </c>
+      <c r="C58">
         <v>1000</v>
       </c>
-      <c r="C58">
+      <c r="D58">
         <v>5.68</v>
       </c>
-      <c r="D58">
+      <c r="E58">
         <v>31.03</v>
       </c>
-      <c r="E58">
+      <c r="F58">
         <v>2.06</v>
       </c>
-      <c r="F58">
+      <c r="G58">
         <v>1.62</v>
       </c>
-      <c r="G58">
+      <c r="H58">
         <v>4.13</v>
       </c>
-      <c r="H58">
+      <c r="I58">
         <v>0.51</v>
       </c>
-      <c r="I58">
+      <c r="J58">
         <v>0.06</v>
       </c>
-      <c r="J58">
+      <c r="K58">
         <v>1.1499999999999999</v>
-      </c>
-      <c r="K58">
-        <v>1.21</v>
       </c>
       <c r="L58">
         <v>1.21</v>
       </c>
       <c r="M58">
+        <v>1.21</v>
+      </c>
+      <c r="N58">
         <v>2.4900000000000002</v>
       </c>
-      <c r="N58">
+      <c r="O58">
         <v>14.01</v>
       </c>
-      <c r="O58">
+      <c r="P58">
         <v>2.12</v>
       </c>
-      <c r="P58">
+      <c r="Q58">
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>75</v>
       </c>
-      <c r="B59">
+      <c r="B59" t="s">
+        <v>149</v>
+      </c>
+      <c r="C59">
         <v>1500</v>
       </c>
-      <c r="C59">
+      <c r="D59">
         <v>6.19</v>
       </c>
-      <c r="D59">
+      <c r="E59">
         <v>30.19</v>
       </c>
-      <c r="E59">
+      <c r="F59">
         <v>2.0499999999999998</v>
       </c>
-      <c r="F59">
+      <c r="G59">
         <v>1.46</v>
       </c>
-      <c r="G59">
+      <c r="H59">
         <v>4.17</v>
       </c>
-      <c r="H59">
+      <c r="I59">
         <v>0.4</v>
       </c>
-      <c r="I59">
+      <c r="J59">
         <v>0.05</v>
       </c>
-      <c r="J59">
+      <c r="K59">
         <v>1.38</v>
-      </c>
-      <c r="K59">
-        <v>1.44</v>
       </c>
       <c r="L59">
         <v>1.44</v>
       </c>
       <c r="M59">
+        <v>1.44</v>
+      </c>
+      <c r="N59">
         <v>2.4300000000000002</v>
       </c>
-      <c r="N59">
+      <c r="O59">
         <v>14.56</v>
       </c>
-      <c r="O59">
+      <c r="P59">
         <v>2.52</v>
       </c>
-      <c r="P59">
+      <c r="Q59">
         <v>2.39</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>76</v>
       </c>
-      <c r="B60">
+      <c r="B60" t="s">
+        <v>149</v>
+      </c>
+      <c r="C60">
         <v>1500</v>
       </c>
-      <c r="C60">
+      <c r="D60">
         <v>6.06</v>
       </c>
-      <c r="D60">
+      <c r="E60">
         <v>31.33</v>
       </c>
-      <c r="E60">
+      <c r="F60">
         <v>2.06</v>
       </c>
-      <c r="F60">
+      <c r="G60">
         <v>1.48</v>
       </c>
-      <c r="G60">
+      <c r="H60">
         <v>3.8</v>
       </c>
-      <c r="H60">
+      <c r="I60">
         <v>0.41</v>
       </c>
-      <c r="I60">
+      <c r="J60">
         <v>0.05</v>
       </c>
-      <c r="J60">
+      <c r="K60">
         <v>1.26</v>
-      </c>
-      <c r="K60">
-        <v>1.31</v>
       </c>
       <c r="L60">
         <v>1.31</v>
       </c>
       <c r="M60">
+        <v>1.31</v>
+      </c>
+      <c r="N60">
         <v>2.4700000000000002</v>
       </c>
-      <c r="N60">
+      <c r="O60">
         <v>14.38</v>
       </c>
-      <c r="O60">
+      <c r="P60">
         <v>2.2000000000000002</v>
       </c>
-      <c r="P60">
+      <c r="Q60">
         <v>2.08</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>77</v>
       </c>
-      <c r="B61">
+      <c r="B61" t="s">
+        <v>149</v>
+      </c>
+      <c r="C61">
         <v>1500</v>
       </c>
-      <c r="C61">
+      <c r="D61">
         <v>5.93</v>
       </c>
-      <c r="D61">
+      <c r="E61">
         <v>30.99</v>
       </c>
-      <c r="E61">
+      <c r="F61">
         <v>2</v>
       </c>
-      <c r="F61">
+      <c r="G61">
         <v>1.4</v>
       </c>
-      <c r="G61">
+      <c r="H61">
         <v>3.75</v>
       </c>
-      <c r="H61">
+      <c r="I61">
         <v>0.42</v>
       </c>
-      <c r="I61">
+      <c r="J61">
         <v>0.05</v>
       </c>
-      <c r="J61">
+      <c r="K61">
         <v>1.26</v>
-      </c>
-      <c r="K61">
-        <v>1.31</v>
       </c>
       <c r="L61">
         <v>1.31</v>
       </c>
       <c r="M61">
+        <v>1.31</v>
+      </c>
+      <c r="N61">
         <v>2.38</v>
       </c>
-      <c r="N61">
+      <c r="O61">
         <v>14.39</v>
       </c>
-      <c r="O61">
+      <c r="P61">
         <v>2.29</v>
       </c>
-      <c r="P61">
+      <c r="Q61">
         <v>2.17</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>78</v>
       </c>
-      <c r="B62">
+      <c r="B62" t="s">
+        <v>149</v>
+      </c>
+      <c r="C62">
         <v>2000</v>
       </c>
-      <c r="C62">
+      <c r="D62">
         <v>6.85</v>
       </c>
-      <c r="D62">
+      <c r="E62">
         <v>31.3</v>
       </c>
-      <c r="E62">
+      <c r="F62">
         <v>1.91</v>
       </c>
-      <c r="F62">
+      <c r="G62">
         <v>1.36</v>
       </c>
-      <c r="G62">
+      <c r="H62">
         <v>3.71</v>
       </c>
-      <c r="H62">
+      <c r="I62">
         <v>0.33</v>
       </c>
-      <c r="I62">
+      <c r="J62">
         <v>0.04</v>
       </c>
-      <c r="J62">
+      <c r="K62">
         <v>1.41</v>
-      </c>
-      <c r="K62">
-        <v>1.47</v>
       </c>
       <c r="L62">
         <v>1.47</v>
       </c>
       <c r="M62">
+        <v>1.47</v>
+      </c>
+      <c r="N62">
         <v>2.2599999999999998</v>
       </c>
-      <c r="N62">
+      <c r="O62">
         <v>15.04</v>
       </c>
-      <c r="O62">
+      <c r="P62">
         <v>2.54</v>
       </c>
-      <c r="P62">
+      <c r="Q62">
         <v>2.42</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>79</v>
       </c>
-      <c r="B63">
+      <c r="B63" t="s">
+        <v>149</v>
+      </c>
+      <c r="C63">
         <v>2000</v>
       </c>
-      <c r="C63">
+      <c r="D63">
         <v>9.1</v>
       </c>
-      <c r="D63">
+      <c r="E63">
         <v>30.01</v>
       </c>
-      <c r="E63">
+      <c r="F63">
         <v>1.52</v>
       </c>
-      <c r="F63">
+      <c r="G63">
         <v>1.41</v>
       </c>
-      <c r="G63">
+      <c r="H63">
         <v>3.14</v>
       </c>
-      <c r="H63">
+      <c r="I63">
         <v>0.23</v>
       </c>
-      <c r="I63">
+      <c r="J63">
         <v>0.04</v>
       </c>
-      <c r="J63">
+      <c r="K63">
         <v>1.58</v>
-      </c>
-      <c r="K63">
-        <v>1.65</v>
       </c>
       <c r="L63">
         <v>1.65</v>
       </c>
       <c r="M63">
+        <v>1.65</v>
+      </c>
+      <c r="N63">
         <v>1.77</v>
       </c>
-      <c r="N63">
+      <c r="O63">
         <v>17.45</v>
       </c>
-      <c r="O63">
+      <c r="P63">
         <v>2.27</v>
       </c>
-      <c r="P63">
+      <c r="Q63">
         <v>2.16</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>80</v>
       </c>
-      <c r="B64">
+      <c r="B64" t="s">
+        <v>149</v>
+      </c>
+      <c r="C64">
         <v>2000</v>
       </c>
-      <c r="C64">
+      <c r="D64">
         <v>7.3</v>
       </c>
-      <c r="D64">
+      <c r="E64">
         <v>29.8</v>
       </c>
-      <c r="E64">
+      <c r="F64">
         <v>1.82</v>
       </c>
-      <c r="F64">
+      <c r="G64">
         <v>1.52</v>
       </c>
-      <c r="G64">
+      <c r="H64">
         <v>3.69</v>
       </c>
-      <c r="H64">
+      <c r="I64">
         <v>0.28999999999999998</v>
       </c>
-      <c r="I64">
+      <c r="J64">
         <v>0.05</v>
       </c>
-      <c r="J64">
+      <c r="K64">
         <v>1.33</v>
-      </c>
-      <c r="K64">
-        <v>1.39</v>
       </c>
       <c r="L64">
         <v>1.39</v>
       </c>
       <c r="M64">
+        <v>1.39</v>
+      </c>
+      <c r="N64">
         <v>2.17</v>
       </c>
-      <c r="N64">
+      <c r="O64">
         <v>15.42</v>
       </c>
-      <c r="O64">
+      <c r="P64">
         <v>2.33</v>
       </c>
-      <c r="P64">
+      <c r="Q64">
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>81</v>
       </c>
-      <c r="B65">
-        <v>1000</v>
+      <c r="B65" t="s">
+        <v>149</v>
       </c>
       <c r="C65">
+        <v>100</v>
+      </c>
+      <c r="D65">
         <v>5.24</v>
       </c>
-      <c r="D65">
+      <c r="E65">
         <v>28.79</v>
       </c>
-      <c r="E65">
+      <c r="F65">
         <v>2.72</v>
       </c>
-      <c r="F65">
+      <c r="G65">
         <v>2.06</v>
       </c>
-      <c r="G65">
+      <c r="H65">
         <v>3.23</v>
       </c>
-      <c r="H65">
+      <c r="I65">
         <v>0.35</v>
       </c>
-      <c r="I65">
+      <c r="J65">
         <v>0.05</v>
       </c>
-      <c r="J65">
+      <c r="K65">
         <v>1.04</v>
-      </c>
-      <c r="K65">
-        <v>1.0900000000000001</v>
       </c>
       <c r="L65">
         <v>1.0900000000000001</v>
       </c>
       <c r="M65">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="N65">
         <v>3.26</v>
       </c>
-      <c r="N65">
+      <c r="O65">
         <v>11.12</v>
       </c>
-      <c r="O65">
+      <c r="P65">
         <v>1.9</v>
       </c>
-      <c r="P65">
+      <c r="Q65">
         <v>1.77</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>82</v>
       </c>
-      <c r="B66">
-        <v>1000</v>
+      <c r="B66" t="s">
+        <v>149</v>
       </c>
       <c r="C66">
+        <v>100</v>
+      </c>
+      <c r="D66">
         <v>5.46</v>
       </c>
-      <c r="D66">
+      <c r="E66">
         <v>27.11</v>
       </c>
-      <c r="E66">
+      <c r="F66">
         <v>2.98</v>
       </c>
-      <c r="F66">
+      <c r="G66">
         <v>2.2000000000000002</v>
       </c>
-      <c r="G66">
+      <c r="H66">
         <v>3.29</v>
       </c>
-      <c r="H66">
+      <c r="I66">
         <v>0.39</v>
       </c>
-      <c r="I66">
+      <c r="J66">
         <v>0.05</v>
       </c>
-      <c r="J66">
+      <c r="K66">
         <v>0.98</v>
-      </c>
-      <c r="K66">
-        <v>1.03</v>
       </c>
       <c r="L66">
         <v>1.03</v>
       </c>
       <c r="M66">
+        <v>1.03</v>
+      </c>
+      <c r="N66">
         <v>3.6</v>
       </c>
-      <c r="N66">
+      <c r="O66">
         <v>11.47</v>
       </c>
-      <c r="O66">
+      <c r="P66">
         <v>1.98</v>
       </c>
-      <c r="P66">
+      <c r="Q66">
         <v>1.85</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>83</v>
       </c>
-      <c r="B67">
-        <v>1000</v>
+      <c r="B67" t="s">
+        <v>149</v>
       </c>
       <c r="C67">
+        <v>100</v>
+      </c>
+      <c r="D67">
         <v>5.32</v>
       </c>
-      <c r="D67">
+      <c r="E67">
         <v>28.78</v>
       </c>
-      <c r="E67">
+      <c r="F67">
         <v>2.87</v>
       </c>
-      <c r="F67">
+      <c r="G67">
         <v>2.12</v>
       </c>
-      <c r="G67">
+      <c r="H67">
         <v>3.14</v>
       </c>
-      <c r="H67">
+      <c r="I67">
         <v>0.35</v>
       </c>
-      <c r="I67">
+      <c r="J67">
         <v>0.05</v>
       </c>
-      <c r="J67">
+      <c r="K67">
         <v>1.02</v>
-      </c>
-      <c r="K67">
-        <v>1.07</v>
       </c>
       <c r="L67">
         <v>1.07</v>
       </c>
       <c r="M67">
+        <v>1.07</v>
+      </c>
+      <c r="N67">
         <v>3.45</v>
       </c>
-      <c r="N67">
+      <c r="O67">
         <v>11.29</v>
       </c>
-      <c r="O67">
+      <c r="P67">
         <v>1.8</v>
       </c>
-      <c r="P67">
+      <c r="Q67">
         <v>1.67</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>84</v>
       </c>
-      <c r="B68">
-        <v>100</v>
+      <c r="B68" t="s">
+        <v>149</v>
       </c>
       <c r="C68">
+        <v>250</v>
+      </c>
+      <c r="D68">
         <v>5.69</v>
       </c>
-      <c r="D68">
+      <c r="E68">
         <v>30.5</v>
       </c>
-      <c r="E68">
+      <c r="F68">
         <v>2.2799999999999998</v>
       </c>
-      <c r="F68">
+      <c r="G68">
         <v>2.29</v>
       </c>
-      <c r="G68">
+      <c r="H68">
         <v>3.77</v>
       </c>
-      <c r="H68">
+      <c r="I68">
         <v>0.41</v>
       </c>
-      <c r="I68">
+      <c r="J68">
         <v>0.05</v>
       </c>
-      <c r="J68">
+      <c r="K68">
         <v>1.04</v>
-      </c>
-      <c r="K68">
-        <v>1.08</v>
       </c>
       <c r="L68">
         <v>1.08</v>
       </c>
       <c r="M68">
+        <v>1.08</v>
+      </c>
+      <c r="N68">
         <v>2.83</v>
       </c>
-      <c r="N68">
+      <c r="O68">
         <v>12.5</v>
       </c>
-      <c r="O68">
+      <c r="P68">
         <v>1.93</v>
       </c>
-      <c r="P68">
+      <c r="Q68">
         <v>1.78</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>85</v>
       </c>
-      <c r="B69">
-        <v>100</v>
+      <c r="B69" t="s">
+        <v>149</v>
       </c>
       <c r="C69">
+        <v>250</v>
+      </c>
+      <c r="D69">
         <v>6.25</v>
       </c>
-      <c r="D69">
+      <c r="E69">
         <v>30.4</v>
       </c>
-      <c r="E69">
+      <c r="F69">
         <v>2.2400000000000002</v>
       </c>
-      <c r="F69">
+      <c r="G69">
         <v>2.13</v>
       </c>
-      <c r="G69">
+      <c r="H69">
         <v>3.49</v>
       </c>
-      <c r="H69">
+      <c r="I69">
         <v>0.39</v>
       </c>
-      <c r="I69">
+      <c r="J69">
         <v>0.05</v>
       </c>
-      <c r="J69">
+      <c r="K69">
         <v>0.93</v>
-      </c>
-      <c r="K69">
-        <v>0.98</v>
       </c>
       <c r="L69">
         <v>0.98</v>
       </c>
       <c r="M69">
+        <v>0.98</v>
+      </c>
+      <c r="N69">
         <v>2.79</v>
       </c>
-      <c r="N69">
+      <c r="O69">
         <v>12.46</v>
       </c>
-      <c r="O69">
+      <c r="P69">
         <v>1.74</v>
       </c>
-      <c r="P69">
+      <c r="Q69">
         <v>1.6</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>86</v>
       </c>
-      <c r="B70">
-        <v>100</v>
+      <c r="B70" t="s">
+        <v>149</v>
       </c>
       <c r="C70">
+        <v>250</v>
+      </c>
+      <c r="D70">
         <v>5.54</v>
       </c>
-      <c r="D70">
+      <c r="E70">
         <v>30.44</v>
       </c>
-      <c r="E70">
+      <c r="F70">
         <v>2.31</v>
       </c>
-      <c r="F70">
+      <c r="G70">
         <v>2.21</v>
       </c>
-      <c r="G70">
+      <c r="H70">
         <v>3.69</v>
       </c>
-      <c r="H70">
+      <c r="I70">
         <v>0.41</v>
       </c>
-      <c r="I70">
+      <c r="J70">
         <v>0.05</v>
       </c>
-      <c r="J70">
+      <c r="K70">
         <v>1.08</v>
-      </c>
-      <c r="K70">
-        <v>1.1299999999999999</v>
       </c>
       <c r="L70">
         <v>1.1299999999999999</v>
       </c>
       <c r="M70">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="N70">
         <v>2.82</v>
       </c>
-      <c r="N70">
+      <c r="O70">
         <v>12.5</v>
       </c>
-      <c r="O70">
+      <c r="P70">
         <v>2.02</v>
       </c>
-      <c r="P70">
+      <c r="Q70">
         <v>1.87</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>87</v>
       </c>
-      <c r="B71">
-        <v>250</v>
+      <c r="B71" t="s">
+        <v>149</v>
       </c>
       <c r="C71">
+        <v>500</v>
+      </c>
+      <c r="D71">
         <v>5.12</v>
       </c>
-      <c r="D71">
+      <c r="E71">
         <v>28.92</v>
       </c>
-      <c r="E71">
+      <c r="F71">
         <v>2.54</v>
       </c>
-      <c r="F71">
+      <c r="G71">
         <v>1.68</v>
       </c>
-      <c r="G71">
+      <c r="H71">
         <v>3.44</v>
       </c>
-      <c r="H71">
+      <c r="I71">
         <v>0.42</v>
       </c>
-      <c r="I71">
+      <c r="J71">
         <v>0.05</v>
       </c>
-      <c r="J71">
+      <c r="K71">
         <v>1.32</v>
-      </c>
-      <c r="K71">
-        <v>1.38</v>
       </c>
       <c r="L71">
         <v>1.38</v>
       </c>
       <c r="M71">
+        <v>1.38</v>
+      </c>
+      <c r="N71">
         <v>3.05</v>
       </c>
-      <c r="N71">
+      <c r="O71">
         <v>13.18</v>
       </c>
-      <c r="O71">
+      <c r="P71">
         <v>2.4500000000000002</v>
       </c>
-      <c r="P71">
+      <c r="Q71">
         <v>2.3199999999999998</v>
       </c>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>88</v>
       </c>
-      <c r="B72">
-        <v>250</v>
+      <c r="B72" t="s">
+        <v>149</v>
       </c>
       <c r="C72">
+        <v>500</v>
+      </c>
+      <c r="D72">
         <v>5.16</v>
       </c>
-      <c r="D72">
+      <c r="E72">
         <v>29.58</v>
       </c>
-      <c r="E72">
+      <c r="F72">
         <v>2.42</v>
       </c>
-      <c r="F72">
+      <c r="G72">
         <v>1.75</v>
       </c>
-      <c r="G72">
+      <c r="H72">
         <v>3.53</v>
       </c>
-      <c r="H72">
+      <c r="I72">
         <v>0.44</v>
       </c>
-      <c r="I72">
+      <c r="J72">
         <v>0.05</v>
       </c>
-      <c r="J72">
+      <c r="K72">
         <v>1.27</v>
-      </c>
-      <c r="K72">
-        <v>1.33</v>
       </c>
       <c r="L72">
         <v>1.33</v>
       </c>
       <c r="M72">
+        <v>1.33</v>
+      </c>
+      <c r="N72">
         <v>2.94</v>
       </c>
-      <c r="N72">
+      <c r="O72">
         <v>13.4</v>
       </c>
-      <c r="O72">
+      <c r="P72">
         <v>2.33</v>
       </c>
-      <c r="P72">
+      <c r="Q72">
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>89</v>
       </c>
-      <c r="B73">
-        <v>250</v>
+      <c r="B73" t="s">
+        <v>149</v>
       </c>
       <c r="C73">
+        <v>500</v>
+      </c>
+      <c r="D73">
         <v>8.89</v>
       </c>
-      <c r="D73">
+      <c r="E73">
         <v>26.68</v>
       </c>
-      <c r="E73">
+      <c r="F73">
         <v>1.68</v>
       </c>
-      <c r="F73">
+      <c r="G73">
         <v>1.42</v>
       </c>
-      <c r="G73">
+      <c r="H73">
         <v>2.3199999999999998</v>
       </c>
-      <c r="H73">
+      <c r="I73">
         <v>0.24</v>
       </c>
-      <c r="I73">
+      <c r="J73">
         <v>0.03</v>
       </c>
-      <c r="J73">
+      <c r="K73">
         <v>1.59</v>
-      </c>
-      <c r="K73">
-        <v>1.67</v>
       </c>
       <c r="L73">
         <v>1.67</v>
       </c>
       <c r="M73">
+        <v>1.67</v>
+      </c>
+      <c r="N73">
         <v>2.02</v>
       </c>
-      <c r="N73">
+      <c r="O73">
         <v>17.8</v>
       </c>
-      <c r="O73">
+      <c r="P73">
         <v>2.12</v>
       </c>
-      <c r="P73">
+      <c r="Q73">
         <v>2.0299999999999998</v>
       </c>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>90</v>
       </c>
-      <c r="B74">
-        <v>500</v>
+      <c r="B74" t="s">
+        <v>150</v>
       </c>
       <c r="C74">
+        <v>1000</v>
+      </c>
+      <c r="D74">
         <v>0.89</v>
       </c>
-      <c r="D74">
+      <c r="E74">
         <v>5.9</v>
       </c>
-      <c r="E74">
+      <c r="F74">
         <v>22.9</v>
       </c>
-      <c r="F74">
+      <c r="G74">
         <v>0.51</v>
       </c>
-      <c r="G74">
+      <c r="H74">
         <v>1.68</v>
       </c>
-      <c r="H74">
+      <c r="I74">
         <v>0.1</v>
       </c>
-      <c r="I74">
+      <c r="J74">
         <v>0.08</v>
       </c>
-      <c r="J74">
+      <c r="K74">
         <v>4.54</v>
-      </c>
-      <c r="K74">
-        <v>4.6100000000000003</v>
       </c>
       <c r="L74">
         <v>4.6100000000000003</v>
       </c>
       <c r="M74">
+        <v>4.6100000000000003</v>
+      </c>
+      <c r="N74">
         <v>22.95</v>
       </c>
-      <c r="N74">
+      <c r="O74">
         <v>20.68</v>
       </c>
-      <c r="O74">
+      <c r="P74">
         <v>33.340000000000003</v>
       </c>
-      <c r="P74">
+      <c r="Q74">
         <v>33.17</v>
       </c>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>91</v>
       </c>
-      <c r="B75">
-        <v>500</v>
+      <c r="B75" t="s">
+        <v>150</v>
       </c>
       <c r="C75">
+        <v>1000</v>
+      </c>
+      <c r="D75">
         <v>1.04</v>
       </c>
-      <c r="D75">
+      <c r="E75">
         <v>6.34</v>
       </c>
-      <c r="E75">
+      <c r="F75">
         <v>23.39</v>
       </c>
-      <c r="F75">
+      <c r="G75">
         <v>0.46</v>
       </c>
-      <c r="G75">
+      <c r="H75">
         <v>1.72</v>
       </c>
-      <c r="H75">
+      <c r="I75">
         <v>0.11</v>
       </c>
-      <c r="I75">
+      <c r="J75">
         <v>0.08</v>
       </c>
-      <c r="J75">
+      <c r="K75">
         <v>5.21</v>
-      </c>
-      <c r="K75">
-        <v>5.28</v>
       </c>
       <c r="L75">
         <v>5.28</v>
       </c>
       <c r="M75">
+        <v>5.28</v>
+      </c>
+      <c r="N75">
         <v>23.44</v>
       </c>
-      <c r="N75">
+      <c r="O75">
         <v>20.51</v>
       </c>
-      <c r="O75">
+      <c r="P75">
         <v>32.85</v>
       </c>
-      <c r="P75">
+      <c r="Q75">
         <v>32.700000000000003</v>
       </c>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>92</v>
       </c>
-      <c r="B76">
-        <v>500</v>
+      <c r="B76" t="s">
+        <v>150</v>
       </c>
       <c r="C76">
+        <v>1000</v>
+      </c>
+      <c r="D76">
         <v>0.79</v>
       </c>
-      <c r="D76">
+      <c r="E76">
         <v>5.55</v>
       </c>
-      <c r="E76">
+      <c r="F76">
         <v>26.39</v>
       </c>
-      <c r="F76">
+      <c r="G76">
         <v>0.46</v>
       </c>
-      <c r="G76">
+      <c r="H76">
         <v>1.6</v>
       </c>
-      <c r="H76">
+      <c r="I76">
         <v>0.09</v>
       </c>
-      <c r="I76">
+      <c r="J76">
         <v>0.08</v>
       </c>
-      <c r="J76">
+      <c r="K76">
         <v>4.92</v>
-      </c>
-      <c r="K76">
-        <v>4.9800000000000004</v>
       </c>
       <c r="L76">
         <v>4.9800000000000004</v>
       </c>
       <c r="M76">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="N76">
         <v>26.43</v>
       </c>
-      <c r="N76">
+      <c r="O76">
         <v>19.850000000000001</v>
       </c>
-      <c r="O76">
+      <c r="P76">
         <v>32.74</v>
       </c>
-      <c r="P76">
+      <c r="Q76">
         <v>32.590000000000003</v>
       </c>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>93</v>
       </c>
-      <c r="B77">
-        <v>1000</v>
+      <c r="B77" t="s">
+        <v>150</v>
       </c>
       <c r="C77">
+        <v>1500</v>
+      </c>
+      <c r="D77">
         <v>1.1399999999999999</v>
       </c>
-      <c r="D77">
+      <c r="E77">
         <v>6.11</v>
       </c>
-      <c r="E77">
+      <c r="F77">
         <v>25.56</v>
       </c>
-      <c r="F77">
+      <c r="G77">
         <v>0.48</v>
       </c>
-      <c r="G77">
+      <c r="H77">
         <v>1.68</v>
       </c>
-      <c r="H77">
+      <c r="I77">
         <v>0.1</v>
       </c>
-      <c r="I77">
+      <c r="J77">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="J77">
+      <c r="K77">
         <v>5.09</v>
-      </c>
-      <c r="K77">
-        <v>5.16</v>
       </c>
       <c r="L77">
         <v>5.16</v>
       </c>
       <c r="M77">
+        <v>5.16</v>
+      </c>
+      <c r="N77">
         <v>25.62</v>
       </c>
-      <c r="N77">
+      <c r="O77">
         <v>20.420000000000002</v>
       </c>
-      <c r="O77">
+      <c r="P77">
         <v>32.340000000000003</v>
       </c>
-      <c r="P77">
+      <c r="Q77">
         <v>32.200000000000003</v>
       </c>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>94</v>
       </c>
-      <c r="B78">
-        <v>1000</v>
+      <c r="B78" t="s">
+        <v>150</v>
       </c>
       <c r="C78">
+        <v>1500</v>
+      </c>
+      <c r="D78">
         <v>1</v>
       </c>
-      <c r="D78">
+      <c r="E78">
         <v>5.66</v>
       </c>
-      <c r="E78">
+      <c r="F78">
         <v>25.66</v>
       </c>
-      <c r="F78">
+      <c r="G78">
         <v>0.5</v>
       </c>
-      <c r="G78">
+      <c r="H78">
         <v>1.65</v>
       </c>
-      <c r="H78">
+      <c r="I78">
         <v>0.1</v>
       </c>
-      <c r="I78">
+      <c r="J78">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="J78">
+      <c r="K78">
         <v>4.88</v>
-      </c>
-      <c r="K78">
-        <v>4.95</v>
       </c>
       <c r="L78">
         <v>4.95</v>
       </c>
       <c r="M78">
+        <v>4.95</v>
+      </c>
+      <c r="N78">
         <v>25.72</v>
       </c>
-      <c r="N78">
+      <c r="O78">
         <v>21.12</v>
       </c>
-      <c r="O78">
+      <c r="P78">
         <v>33.04</v>
       </c>
-      <c r="P78">
+      <c r="Q78">
         <v>32.909999999999997</v>
       </c>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>95</v>
       </c>
-      <c r="B79">
-        <v>1000</v>
+      <c r="B79" t="s">
+        <v>150</v>
       </c>
       <c r="C79">
+        <v>1500</v>
+      </c>
+      <c r="D79">
         <v>1.06</v>
       </c>
-      <c r="D79">
+      <c r="E79">
         <v>5.92</v>
       </c>
-      <c r="E79">
+      <c r="F79">
         <v>25.84</v>
       </c>
-      <c r="F79">
+      <c r="G79">
         <v>0.51</v>
       </c>
-      <c r="G79">
+      <c r="H79">
         <v>1.69</v>
       </c>
-      <c r="H79">
+      <c r="I79">
         <v>0.11</v>
       </c>
-      <c r="I79">
+      <c r="J79">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="J79">
+      <c r="K79">
         <v>4.8899999999999997</v>
-      </c>
-      <c r="K79">
-        <v>4.95</v>
       </c>
       <c r="L79">
         <v>4.95</v>
       </c>
       <c r="M79">
+        <v>4.95</v>
+      </c>
+      <c r="N79">
         <v>25.89</v>
       </c>
-      <c r="N79">
+      <c r="O79">
         <v>20.74</v>
       </c>
-      <c r="O79">
+      <c r="P79">
         <v>32.25</v>
       </c>
-      <c r="P79">
+      <c r="Q79">
         <v>32.119999999999997</v>
       </c>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>96</v>
       </c>
-      <c r="B80">
-        <v>1500</v>
+      <c r="B80" t="s">
+        <v>150</v>
       </c>
       <c r="C80">
+        <v>2000</v>
+      </c>
+      <c r="D80">
         <v>1.08</v>
       </c>
-      <c r="D80">
+      <c r="E80">
         <v>5.56</v>
       </c>
-      <c r="E80">
+      <c r="F80">
         <v>25.59</v>
       </c>
-      <c r="F80">
+      <c r="G80">
         <v>0.5</v>
       </c>
-      <c r="G80">
+      <c r="H80">
         <v>1.61</v>
       </c>
-      <c r="H80">
+      <c r="I80">
         <v>0.1</v>
       </c>
-      <c r="I80">
+      <c r="J80">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="J80">
+      <c r="K80">
         <v>5.15</v>
-      </c>
-      <c r="K80">
-        <v>5.22</v>
       </c>
       <c r="L80">
         <v>5.22</v>
       </c>
       <c r="M80">
+        <v>5.22</v>
+      </c>
+      <c r="N80">
         <v>25.64</v>
       </c>
-      <c r="N80">
+      <c r="O80">
         <v>21.03</v>
       </c>
-      <c r="O80">
+      <c r="P80">
         <v>33.729999999999997</v>
       </c>
-      <c r="P80">
+      <c r="Q80">
         <v>33.6</v>
       </c>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>97</v>
       </c>
-      <c r="B81">
-        <v>1500</v>
+      <c r="B81" t="s">
+        <v>150</v>
       </c>
       <c r="C81">
+        <v>2000</v>
+      </c>
+      <c r="D81">
         <v>1.01</v>
       </c>
-      <c r="D81">
+      <c r="E81">
         <v>5.63</v>
       </c>
-      <c r="E81">
+      <c r="F81">
         <v>26.24</v>
       </c>
-      <c r="F81">
+      <c r="G81">
         <v>0.51</v>
       </c>
-      <c r="G81">
+      <c r="H81">
         <v>1.62</v>
       </c>
-      <c r="H81">
+      <c r="I81">
         <v>0.1</v>
       </c>
-      <c r="I81">
+      <c r="J81">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="J81">
+      <c r="K81">
         <v>4.93</v>
-      </c>
-      <c r="K81">
-        <v>5</v>
       </c>
       <c r="L81">
         <v>5</v>
       </c>
       <c r="M81">
+        <v>5</v>
+      </c>
+      <c r="N81">
         <v>26.3</v>
       </c>
-      <c r="N81">
+      <c r="O81">
         <v>21.78</v>
       </c>
-      <c r="O81">
+      <c r="P81">
         <v>32.799999999999997</v>
       </c>
-      <c r="P81">
+      <c r="Q81">
         <v>32.67</v>
       </c>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>98</v>
       </c>
-      <c r="B82">
-        <v>1500</v>
+      <c r="B82" t="s">
+        <v>150</v>
       </c>
       <c r="C82">
+        <v>2000</v>
+      </c>
+      <c r="D82">
         <v>1.29</v>
       </c>
-      <c r="D82">
+      <c r="E82">
         <v>5.48</v>
       </c>
-      <c r="E82">
+      <c r="F82">
         <v>23.39</v>
       </c>
-      <c r="F82">
+      <c r="G82">
         <v>0.52</v>
       </c>
-      <c r="G82">
+      <c r="H82">
         <v>1.77</v>
       </c>
-      <c r="H82">
+      <c r="I82">
         <v>0.11</v>
       </c>
-      <c r="I82">
+      <c r="J82">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="J82">
+      <c r="K82">
         <v>5.19</v>
-      </c>
-      <c r="K82">
-        <v>5.25</v>
       </c>
       <c r="L82">
         <v>5.25</v>
       </c>
       <c r="M82">
+        <v>5.25</v>
+      </c>
+      <c r="N82">
         <v>23.45</v>
       </c>
-      <c r="N82">
+      <c r="O82">
         <v>22.25</v>
       </c>
-      <c r="O82">
+      <c r="P82">
         <v>34.200000000000003</v>
       </c>
-      <c r="P82">
+      <c r="Q82">
         <v>34.07</v>
       </c>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>99</v>
       </c>
-      <c r="B83">
-        <v>2000</v>
+      <c r="B83" t="s">
+        <v>151</v>
       </c>
       <c r="C83">
+        <v>1000</v>
+      </c>
+      <c r="D83">
         <v>0.26</v>
       </c>
-      <c r="D83">
+      <c r="E83">
         <v>7.54</v>
       </c>
-      <c r="E83">
+      <c r="F83">
         <v>2.77</v>
       </c>
-      <c r="F83">
+      <c r="G83">
         <v>0.37</v>
       </c>
-      <c r="G83">
+      <c r="H83">
         <v>0.95</v>
       </c>
-      <c r="H83">
+      <c r="I83">
         <v>0.11</v>
       </c>
-      <c r="I83">
+      <c r="J83">
         <v>0.06</v>
       </c>
-      <c r="J83">
+      <c r="K83">
         <v>5.81</v>
-      </c>
-      <c r="K83">
-        <v>5.85</v>
       </c>
       <c r="L83">
         <v>5.85</v>
       </c>
       <c r="M83">
+        <v>5.85</v>
+      </c>
+      <c r="N83">
         <v>2.78</v>
       </c>
-      <c r="N83">
+      <c r="O83">
         <v>10.8</v>
       </c>
-      <c r="O83">
+      <c r="P83">
         <v>47.24</v>
       </c>
-      <c r="P83">
+      <c r="Q83">
         <v>46.68</v>
       </c>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>100</v>
       </c>
-      <c r="B84">
-        <v>2000</v>
+      <c r="B84" t="s">
+        <v>151</v>
       </c>
       <c r="C84">
+        <v>1000</v>
+      </c>
+      <c r="D84">
         <v>0.27</v>
       </c>
-      <c r="D84">
+      <c r="E84">
         <v>7.78</v>
       </c>
-      <c r="E84">
+      <c r="F84">
         <v>2.94</v>
       </c>
-      <c r="F84">
+      <c r="G84">
         <v>0.37</v>
       </c>
-      <c r="G84">
+      <c r="H84">
         <v>1.01</v>
       </c>
-      <c r="H84">
+      <c r="I84">
         <v>0.12</v>
       </c>
-      <c r="I84">
+      <c r="J84">
         <v>0.06</v>
       </c>
-      <c r="J84">
+      <c r="K84">
         <v>5.87</v>
-      </c>
-      <c r="K84">
-        <v>5.92</v>
       </c>
       <c r="L84">
         <v>5.92</v>
       </c>
       <c r="M84">
+        <v>5.92</v>
+      </c>
+      <c r="N84">
         <v>2.95</v>
       </c>
-      <c r="N84">
+      <c r="O84">
         <v>11.27</v>
       </c>
-      <c r="O84">
+      <c r="P84">
         <v>47.57</v>
       </c>
-      <c r="P84">
+      <c r="Q84">
         <v>46.97</v>
       </c>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>101</v>
       </c>
-      <c r="B85">
-        <v>2000</v>
+      <c r="B85" t="s">
+        <v>151</v>
       </c>
       <c r="C85">
+        <v>1000</v>
+      </c>
+      <c r="D85">
         <v>0.26</v>
       </c>
-      <c r="D85">
+      <c r="E85">
         <v>9.5</v>
       </c>
-      <c r="E85">
+      <c r="F85">
         <v>2.06</v>
       </c>
-      <c r="F85">
+      <c r="G85">
         <v>0.36</v>
       </c>
-      <c r="G85">
+      <c r="H85">
         <v>0.97</v>
       </c>
-      <c r="H85">
+      <c r="I85">
         <v>0.11</v>
       </c>
-      <c r="I85">
+      <c r="J85">
         <v>0.05</v>
       </c>
-      <c r="J85">
+      <c r="K85">
         <v>5.49</v>
-      </c>
-      <c r="K85">
-        <v>5.53</v>
       </c>
       <c r="L85">
         <v>5.53</v>
       </c>
       <c r="M85">
+        <v>5.53</v>
+      </c>
+      <c r="N85">
         <v>2.08</v>
       </c>
-      <c r="N85">
+      <c r="O85">
         <v>10.26</v>
       </c>
-      <c r="O85">
+      <c r="P85">
         <v>47.36</v>
       </c>
-      <c r="P85">
+      <c r="Q85">
         <v>46.75</v>
       </c>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>102</v>
       </c>
-      <c r="B86">
+      <c r="B86" t="s">
+        <v>151</v>
+      </c>
+      <c r="C86">
         <v>100</v>
       </c>
-      <c r="C86">
+      <c r="D86">
         <v>0.2</v>
       </c>
-      <c r="D86">
+      <c r="E86">
         <v>10.3</v>
       </c>
-      <c r="E86">
+      <c r="F86">
         <v>2.5099999999999998</v>
       </c>
-      <c r="F86">
+      <c r="G86">
         <v>0.34</v>
       </c>
-      <c r="G86">
+      <c r="H86">
         <v>0.73</v>
       </c>
-      <c r="H86">
+      <c r="I86">
         <v>0.09</v>
       </c>
-      <c r="I86">
+      <c r="J86">
         <v>0.03</v>
       </c>
-      <c r="J86">
+      <c r="K86">
         <v>5.92</v>
-      </c>
-      <c r="K86">
-        <v>5.95</v>
       </c>
       <c r="L86">
         <v>5.95</v>
       </c>
       <c r="M86">
+        <v>5.95</v>
+      </c>
+      <c r="N86">
         <v>2.54</v>
       </c>
-      <c r="N86">
+      <c r="O86">
         <v>10.52</v>
       </c>
-      <c r="O86">
+      <c r="P86">
         <v>35.880000000000003</v>
       </c>
-      <c r="P86">
+      <c r="Q86">
         <v>35.26</v>
       </c>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>103</v>
       </c>
-      <c r="B87">
+      <c r="B87" t="s">
+        <v>151</v>
+      </c>
+      <c r="C87">
         <v>100</v>
       </c>
-      <c r="C87">
+      <c r="D87">
         <v>0.21</v>
       </c>
-      <c r="D87">
+      <c r="E87">
         <v>8.69</v>
       </c>
-      <c r="E87">
+      <c r="F87">
         <v>2.4700000000000002</v>
       </c>
-      <c r="F87">
+      <c r="G87">
         <v>0.35</v>
       </c>
-      <c r="G87">
+      <c r="H87">
         <v>0.81</v>
       </c>
-      <c r="H87">
+      <c r="I87">
         <v>0.1</v>
       </c>
-      <c r="I87">
+      <c r="J87">
         <v>0.04</v>
       </c>
-      <c r="J87">
+      <c r="K87">
         <v>6.92</v>
-      </c>
-      <c r="K87">
-        <v>6.95</v>
       </c>
       <c r="L87">
         <v>6.95</v>
       </c>
       <c r="M87">
+        <v>6.95</v>
+      </c>
+      <c r="N87">
         <v>2.5099999999999998</v>
       </c>
-      <c r="N87">
+      <c r="O87">
         <v>10.86</v>
       </c>
-      <c r="O87">
+      <c r="P87">
         <v>41.67</v>
       </c>
-      <c r="P87">
+      <c r="Q87">
         <v>40.94</v>
       </c>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>104</v>
       </c>
-      <c r="B88">
+      <c r="B88" t="s">
+        <v>151</v>
+      </c>
+      <c r="C88">
         <v>100</v>
       </c>
-      <c r="C88">
+      <c r="D88">
         <v>0.08</v>
       </c>
-      <c r="D88">
+      <c r="E88">
         <v>3.3</v>
       </c>
-      <c r="E88">
+      <c r="F88">
         <v>0.36</v>
       </c>
-      <c r="F88">
+      <c r="G88">
         <v>0.15</v>
       </c>
-      <c r="G88">
+      <c r="H88">
         <v>0.32</v>
       </c>
-      <c r="H88">
+      <c r="I88">
         <v>0.03</v>
       </c>
-      <c r="I88">
+      <c r="J88">
         <v>0.01</v>
       </c>
-      <c r="J88">
+      <c r="K88">
         <v>2.4700000000000002</v>
-      </c>
-      <c r="K88">
-        <v>2.48</v>
       </c>
       <c r="L88">
         <v>2.48</v>
       </c>
       <c r="M88">
+        <v>2.48</v>
+      </c>
+      <c r="N88">
         <v>0.38</v>
       </c>
-      <c r="N88">
+      <c r="O88">
         <v>4.0199999999999996</v>
       </c>
-      <c r="O88">
+      <c r="P88">
         <v>14.66</v>
       </c>
-      <c r="P88">
+      <c r="Q88">
         <v>14.43</v>
       </c>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>105</v>
       </c>
-      <c r="B89">
+      <c r="B89" t="s">
+        <v>151</v>
+      </c>
+      <c r="C89">
         <v>250</v>
       </c>
-      <c r="C89">
+      <c r="D89">
         <v>0.11</v>
       </c>
-      <c r="D89">
+      <c r="E89">
         <v>4.12</v>
       </c>
-      <c r="E89">
+      <c r="F89">
         <v>0.72</v>
       </c>
-      <c r="F89">
+      <c r="G89">
         <v>0.2</v>
       </c>
-      <c r="G89">
+      <c r="H89">
         <v>0.45</v>
       </c>
-      <c r="H89">
+      <c r="I89">
         <v>0.04</v>
       </c>
-      <c r="I89">
+      <c r="J89">
         <v>0.02</v>
       </c>
-      <c r="J89">
+      <c r="K89">
         <v>3.43</v>
-      </c>
-      <c r="K89">
-        <v>3.45</v>
       </c>
       <c r="L89">
         <v>3.45</v>
       </c>
       <c r="M89">
+        <v>3.45</v>
+      </c>
+      <c r="N89">
         <v>0.73</v>
       </c>
-      <c r="N89">
+      <c r="O89">
         <v>5.52</v>
       </c>
-      <c r="O89">
+      <c r="P89">
         <v>22.23</v>
       </c>
-      <c r="P89">
+      <c r="Q89">
         <v>22</v>
       </c>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>106</v>
       </c>
-      <c r="B90">
+      <c r="B90" t="s">
+        <v>151</v>
+      </c>
+      <c r="C90">
         <v>250</v>
       </c>
-      <c r="C90">
+      <c r="D90">
         <v>0.22</v>
       </c>
-      <c r="D90">
+      <c r="E90">
         <v>10.77</v>
       </c>
-      <c r="E90">
+      <c r="F90">
         <v>5.64</v>
       </c>
-      <c r="F90">
+      <c r="G90">
         <v>0.34</v>
       </c>
-      <c r="G90">
+      <c r="H90">
         <v>0.82</v>
       </c>
-      <c r="H90">
+      <c r="I90">
         <v>0.09</v>
       </c>
-      <c r="I90">
+      <c r="J90">
         <v>0.04</v>
       </c>
-      <c r="J90">
+      <c r="K90">
         <v>6.02</v>
-      </c>
-      <c r="K90">
-        <v>6.06</v>
       </c>
       <c r="L90">
         <v>6.06</v>
       </c>
       <c r="M90">
+        <v>6.06</v>
+      </c>
+      <c r="N90">
         <v>5.67</v>
       </c>
-      <c r="N90">
+      <c r="O90">
         <v>12.43</v>
       </c>
-      <c r="O90">
+      <c r="P90">
         <v>35.270000000000003</v>
       </c>
-      <c r="P90">
+      <c r="Q90">
         <v>34.83</v>
       </c>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>107</v>
       </c>
-      <c r="B91">
+      <c r="B91" t="s">
+        <v>151</v>
+      </c>
+      <c r="C91">
         <v>250</v>
       </c>
-      <c r="C91">
+      <c r="D91">
         <v>0.23</v>
       </c>
-      <c r="D91">
+      <c r="E91">
         <v>10.55</v>
       </c>
-      <c r="E91">
+      <c r="F91">
         <v>3.38</v>
       </c>
-      <c r="F91">
+      <c r="G91">
         <v>0.38</v>
       </c>
-      <c r="G91">
+      <c r="H91">
         <v>0.83</v>
       </c>
-      <c r="H91">
+      <c r="I91">
         <v>0.1</v>
       </c>
-      <c r="I91">
+      <c r="J91">
         <v>0.04</v>
       </c>
-      <c r="J91">
+      <c r="K91">
         <v>6.79</v>
-      </c>
-      <c r="K91">
-        <v>6.83</v>
       </c>
       <c r="L91">
         <v>6.83</v>
       </c>
       <c r="M91">
+        <v>6.83</v>
+      </c>
+      <c r="N91">
         <v>3.41</v>
       </c>
-      <c r="N91">
+      <c r="O91">
         <v>11.63</v>
       </c>
-      <c r="O91">
+      <c r="P91">
         <v>41.04</v>
       </c>
-      <c r="P91">
+      <c r="Q91">
         <v>40.590000000000003</v>
       </c>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>108</v>
       </c>
-      <c r="B92">
+      <c r="B92" t="s">
+        <v>151</v>
+      </c>
+      <c r="C92">
         <v>500</v>
       </c>
-      <c r="C92">
+      <c r="D92">
         <v>0.22</v>
       </c>
-      <c r="D92">
+      <c r="E92">
         <v>7.28</v>
       </c>
-      <c r="E92">
+      <c r="F92">
         <v>1.05</v>
       </c>
-      <c r="F92">
+      <c r="G92">
         <v>0.38</v>
       </c>
-      <c r="G92">
+      <c r="H92">
         <v>0.83</v>
       </c>
-      <c r="H92">
+      <c r="I92">
         <v>0.1</v>
       </c>
-      <c r="I92">
+      <c r="J92">
         <v>0.04</v>
       </c>
-      <c r="J92">
+      <c r="K92">
         <v>5.91</v>
-      </c>
-      <c r="K92">
-        <v>5.95</v>
       </c>
       <c r="L92">
         <v>5.95</v>
       </c>
       <c r="M92">
+        <v>5.95</v>
+      </c>
+      <c r="N92">
         <v>1.07</v>
       </c>
-      <c r="N92">
+      <c r="O92">
         <v>9.64</v>
       </c>
-      <c r="O92">
+      <c r="P92">
         <v>48.69</v>
       </c>
-      <c r="P92">
+      <c r="Q92">
         <v>48.12</v>
       </c>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>109</v>
       </c>
-      <c r="B93">
+      <c r="B93" t="s">
+        <v>151</v>
+      </c>
+      <c r="C93">
         <v>500</v>
       </c>
-      <c r="C93">
+      <c r="D93">
         <v>0.24</v>
       </c>
-      <c r="D93">
+      <c r="E93">
         <v>8.1199999999999992</v>
       </c>
-      <c r="E93">
+      <c r="F93">
         <v>2.78</v>
       </c>
-      <c r="F93">
+      <c r="G93">
         <v>0.37</v>
       </c>
-      <c r="G93">
+      <c r="H93">
         <v>0.91</v>
       </c>
-      <c r="H93">
+      <c r="I93">
         <v>0.11</v>
       </c>
-      <c r="I93">
+      <c r="J93">
         <v>0.05</v>
       </c>
-      <c r="J93">
+      <c r="K93">
         <v>6.15</v>
-      </c>
-      <c r="K93">
-        <v>6.19</v>
       </c>
       <c r="L93">
         <v>6.19</v>
       </c>
       <c r="M93">
+        <v>6.19</v>
+      </c>
+      <c r="N93">
         <v>2.8</v>
       </c>
-      <c r="N93">
+      <c r="O93">
         <v>11.05</v>
       </c>
-      <c r="O93">
+      <c r="P93">
         <v>45.79</v>
       </c>
-      <c r="P93">
+      <c r="Q93">
         <v>45.27</v>
       </c>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>110</v>
       </c>
-      <c r="B94">
+      <c r="B94" t="s">
+        <v>151</v>
+      </c>
+      <c r="C94">
         <v>500</v>
       </c>
-      <c r="C94">
+      <c r="D94">
         <v>0.26</v>
       </c>
-      <c r="D94">
+      <c r="E94">
         <v>9.36</v>
       </c>
-      <c r="E94">
+      <c r="F94">
         <v>5.13</v>
       </c>
-      <c r="F94">
+      <c r="G94">
         <v>0.38</v>
       </c>
-      <c r="G94">
+      <c r="H94">
         <v>0.95</v>
       </c>
-      <c r="H94">
+      <c r="I94">
         <v>0.1</v>
       </c>
-      <c r="I94">
+      <c r="J94">
         <v>0.06</v>
       </c>
-      <c r="J94">
+      <c r="K94">
         <v>6.25</v>
-      </c>
-      <c r="K94">
-        <v>6.3</v>
       </c>
       <c r="L94">
         <v>6.3</v>
       </c>
       <c r="M94">
+        <v>6.3</v>
+      </c>
+      <c r="N94">
         <v>5.14</v>
       </c>
-      <c r="N94">
+      <c r="O94">
         <v>12.59</v>
       </c>
-      <c r="O94">
+      <c r="P94">
         <v>41.5</v>
       </c>
-      <c r="P94">
+      <c r="Q94">
         <v>41.01</v>
       </c>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>111</v>
       </c>
+      <c r="B95" t="s">
+        <v>152</v>
+      </c>
       <c r="C95">
+        <v>1000</v>
+      </c>
+      <c r="D95">
         <v>0.49</v>
       </c>
-      <c r="D95">
+      <c r="E95">
         <v>9.58</v>
       </c>
-      <c r="E95">
+      <c r="F95">
         <v>12.27</v>
       </c>
-      <c r="F95">
+      <c r="G95">
         <v>0.56999999999999995</v>
       </c>
-      <c r="G95">
+      <c r="H95">
         <v>1.1100000000000001</v>
       </c>
-      <c r="H95">
+      <c r="I95">
         <v>0.15</v>
       </c>
-      <c r="I95">
+      <c r="J95">
         <v>0.06</v>
       </c>
-      <c r="J95">
+      <c r="K95">
         <v>9.9700000000000006</v>
-      </c>
-      <c r="K95">
-        <v>10.07</v>
       </c>
       <c r="L95">
         <v>10.07</v>
       </c>
       <c r="M95">
+        <v>10.07</v>
+      </c>
+      <c r="N95">
         <v>11.63</v>
       </c>
-      <c r="N95">
+      <c r="O95">
         <v>16.78</v>
       </c>
-      <c r="O95">
+      <c r="P95">
         <v>46.26</v>
       </c>
-      <c r="P95">
+      <c r="Q95">
         <v>45.96</v>
       </c>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>112</v>
       </c>
+      <c r="B96" t="s">
+        <v>152</v>
+      </c>
       <c r="C96">
+        <v>1000</v>
+      </c>
+      <c r="D96">
         <v>0.48</v>
       </c>
-      <c r="D96">
+      <c r="E96">
         <v>9.2200000000000006</v>
       </c>
-      <c r="E96">
+      <c r="F96">
         <v>8.24</v>
       </c>
-      <c r="F96">
+      <c r="G96">
         <v>0.62</v>
       </c>
-      <c r="G96">
+      <c r="H96">
         <v>0.99</v>
       </c>
-      <c r="H96">
+      <c r="I96">
         <v>0.13</v>
       </c>
-      <c r="I96">
+      <c r="J96">
         <v>0.05</v>
       </c>
-      <c r="J96">
+      <c r="K96">
         <v>8.98</v>
-      </c>
-      <c r="K96">
-        <v>9.08</v>
       </c>
       <c r="L96">
         <v>9.08</v>
       </c>
       <c r="M96">
+        <v>9.08</v>
+      </c>
+      <c r="N96">
         <v>7.95</v>
       </c>
-      <c r="N96">
+      <c r="O96">
         <v>16.059999999999999</v>
       </c>
-      <c r="O96">
+      <c r="P96">
         <v>47.66</v>
       </c>
-      <c r="P96">
+      <c r="Q96">
         <v>47.37</v>
       </c>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>113</v>
       </c>
+      <c r="B97" t="s">
+        <v>152</v>
+      </c>
       <c r="C97">
+        <v>1000</v>
+      </c>
+      <c r="D97">
         <v>0.42</v>
       </c>
-      <c r="D97">
+      <c r="E97">
         <v>11.22</v>
       </c>
-      <c r="E97">
+      <c r="F97">
         <v>9.6999999999999993</v>
       </c>
-      <c r="F97">
+      <c r="G97">
         <v>0.64</v>
       </c>
-      <c r="G97">
+      <c r="H97">
         <v>1.02</v>
       </c>
-      <c r="H97">
+      <c r="I97">
         <v>0.12</v>
       </c>
-      <c r="I97">
+      <c r="J97">
         <v>0.05</v>
       </c>
-      <c r="J97">
+      <c r="K97">
         <v>9.42</v>
-      </c>
-      <c r="K97">
-        <v>9.5399999999999991</v>
       </c>
       <c r="L97">
         <v>9.5399999999999991</v>
       </c>
       <c r="M97">
+        <v>9.5399999999999991</v>
+      </c>
+      <c r="N97">
         <v>9.4499999999999993</v>
       </c>
-      <c r="N97">
+      <c r="O97">
         <v>16.14</v>
       </c>
-      <c r="O97">
+      <c r="P97">
         <v>49</v>
       </c>
-      <c r="P97">
+      <c r="Q97">
         <v>48.71</v>
       </c>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>114</v>
       </c>
+      <c r="B98" t="s">
+        <v>152</v>
+      </c>
       <c r="C98">
+        <v>1500</v>
+      </c>
+      <c r="D98">
         <v>0.51</v>
       </c>
-      <c r="D98">
+      <c r="E98">
         <v>9.0399999999999991</v>
       </c>
-      <c r="E98">
+      <c r="F98">
         <v>9.01</v>
       </c>
-      <c r="F98">
+      <c r="G98">
         <v>0.56000000000000005</v>
       </c>
-      <c r="G98">
+      <c r="H98">
         <v>1.22</v>
       </c>
-      <c r="H98">
+      <c r="I98">
         <v>0.15</v>
       </c>
-      <c r="I98">
+      <c r="J98">
         <v>0.06</v>
       </c>
-      <c r="J98">
+      <c r="K98">
         <v>9.25</v>
-      </c>
-      <c r="K98">
-        <v>9.36</v>
       </c>
       <c r="L98">
         <v>9.36</v>
       </c>
       <c r="M98">
+        <v>9.36</v>
+      </c>
+      <c r="N98">
         <v>8.52</v>
       </c>
-      <c r="N98">
+      <c r="O98">
         <v>15.98</v>
       </c>
-      <c r="O98">
+      <c r="P98">
         <v>52.6</v>
       </c>
-      <c r="P98">
+      <c r="Q98">
         <v>52.28</v>
       </c>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>115</v>
       </c>
+      <c r="B99" t="s">
+        <v>152</v>
+      </c>
       <c r="C99">
+        <v>1500</v>
+      </c>
+      <c r="D99">
         <v>0.56000000000000005</v>
       </c>
-      <c r="D99">
+      <c r="E99">
         <v>9.84</v>
       </c>
-      <c r="E99">
+      <c r="F99">
         <v>11.6</v>
       </c>
-      <c r="F99">
+      <c r="G99">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G99">
+      <c r="H99">
         <v>1.27</v>
       </c>
-      <c r="H99">
+      <c r="I99">
         <v>0.14000000000000001</v>
       </c>
-      <c r="I99">
+      <c r="J99">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="J99">
+      <c r="K99">
         <v>8.7799999999999994</v>
-      </c>
-      <c r="K99">
-        <v>8.89</v>
       </c>
       <c r="L99">
         <v>8.89</v>
       </c>
       <c r="M99">
+        <v>8.89</v>
+      </c>
+      <c r="N99">
         <v>11.11</v>
       </c>
-      <c r="N99">
+      <c r="O99">
         <v>16.059999999999999</v>
       </c>
-      <c r="O99">
+      <c r="P99">
         <v>47.98</v>
       </c>
-      <c r="P99">
+      <c r="Q99">
         <v>47.7</v>
       </c>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>116</v>
       </c>
+      <c r="B100" t="s">
+        <v>152</v>
+      </c>
       <c r="C100">
+        <v>1500</v>
+      </c>
+      <c r="D100">
         <v>0.43</v>
       </c>
-      <c r="D100">
+      <c r="E100">
         <v>9.66</v>
       </c>
-      <c r="E100">
+      <c r="F100">
         <v>6.95</v>
       </c>
-      <c r="F100">
+      <c r="G100">
         <v>0.56999999999999995</v>
       </c>
-      <c r="G100">
+      <c r="H100">
         <v>1.1200000000000001</v>
       </c>
-      <c r="H100">
+      <c r="I100">
         <v>0.15</v>
       </c>
-      <c r="I100">
+      <c r="J100">
         <v>0.06</v>
       </c>
-      <c r="J100">
+      <c r="K100">
         <v>8.6300000000000008</v>
-      </c>
-      <c r="K100">
-        <v>8.74</v>
       </c>
       <c r="L100">
         <v>8.74</v>
       </c>
       <c r="M100">
+        <v>8.74</v>
+      </c>
+      <c r="N100">
         <v>6.77</v>
       </c>
-      <c r="N100">
+      <c r="O100">
         <v>15.03</v>
       </c>
-      <c r="O100">
+      <c r="P100">
         <v>55.57</v>
       </c>
-      <c r="P100">
+      <c r="Q100">
         <v>55.25</v>
       </c>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>117</v>
       </c>
+      <c r="B101" t="s">
+        <v>152</v>
+      </c>
       <c r="C101">
+        <v>2000</v>
+      </c>
+      <c r="D101">
         <v>0.66</v>
       </c>
-      <c r="D101">
+      <c r="E101">
         <v>9.19</v>
       </c>
-      <c r="E101">
+      <c r="F101">
         <v>16.21</v>
       </c>
-      <c r="F101">
+      <c r="G101">
         <v>0.54</v>
       </c>
-      <c r="G101">
+      <c r="H101">
         <v>1.42</v>
       </c>
-      <c r="H101">
+      <c r="I101">
         <v>0.15</v>
       </c>
-      <c r="I101">
+      <c r="J101">
         <v>0.08</v>
       </c>
-      <c r="J101">
+      <c r="K101">
         <v>8.43</v>
-      </c>
-      <c r="K101">
-        <v>8.5399999999999991</v>
       </c>
       <c r="L101">
         <v>8.5399999999999991</v>
       </c>
       <c r="M101">
+        <v>8.5399999999999991</v>
+      </c>
+      <c r="N101">
         <v>14.93</v>
       </c>
-      <c r="N101">
+      <c r="O101">
         <v>17.66</v>
       </c>
-      <c r="O101">
+      <c r="P101">
         <v>41.06</v>
       </c>
-      <c r="P101">
+      <c r="Q101">
         <v>40.81</v>
       </c>
     </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>118</v>
       </c>
+      <c r="B102" t="s">
+        <v>152</v>
+      </c>
       <c r="C102">
+        <v>2000</v>
+      </c>
+      <c r="D102">
         <v>0.52</v>
       </c>
-      <c r="D102">
+      <c r="E102">
         <v>8.57</v>
       </c>
-      <c r="E102">
+      <c r="F102">
         <v>11.31</v>
       </c>
-      <c r="F102">
+      <c r="G102">
         <v>0.51</v>
       </c>
-      <c r="G102">
+      <c r="H102">
         <v>1.28</v>
       </c>
-      <c r="H102">
+      <c r="I102">
         <v>0.16</v>
       </c>
-      <c r="I102">
+      <c r="J102">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="J102">
+      <c r="K102">
         <v>7.96</v>
-      </c>
-      <c r="K102">
-        <v>8.07</v>
       </c>
       <c r="L102">
         <v>8.07</v>
       </c>
       <c r="M102">
+        <v>8.07</v>
+      </c>
+      <c r="N102">
         <v>10.52</v>
       </c>
-      <c r="N102">
+      <c r="O102">
         <v>15.89</v>
       </c>
-      <c r="O102">
+      <c r="P102">
         <v>49.5</v>
       </c>
-      <c r="P102">
+      <c r="Q102">
         <v>49.22</v>
       </c>
     </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>119</v>
       </c>
+      <c r="B103" t="s">
+        <v>152</v>
+      </c>
       <c r="C103">
+        <v>2000</v>
+      </c>
+      <c r="D103">
         <v>0.47</v>
       </c>
-      <c r="D103">
+      <c r="E103">
         <v>8.07</v>
       </c>
-      <c r="E103">
+      <c r="F103">
         <v>8.16</v>
       </c>
-      <c r="F103">
+      <c r="G103">
         <v>0.5</v>
       </c>
-      <c r="G103">
+      <c r="H103">
         <v>1.22</v>
       </c>
-      <c r="H103">
+      <c r="I103">
         <v>0.15</v>
       </c>
-      <c r="I103">
+      <c r="J103">
         <v>0.06</v>
       </c>
-      <c r="J103">
+      <c r="K103">
         <v>8.24</v>
-      </c>
-      <c r="K103">
-        <v>8.35</v>
       </c>
       <c r="L103">
         <v>8.35</v>
       </c>
       <c r="M103">
+        <v>8.35</v>
+      </c>
+      <c r="N103">
         <v>7.61</v>
       </c>
-      <c r="N103">
+      <c r="O103">
         <v>14.9</v>
       </c>
-      <c r="O103">
+      <c r="P103">
         <v>55.43</v>
       </c>
-      <c r="P103">
+      <c r="Q103">
         <v>55.13</v>
       </c>
     </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>120</v>
       </c>
+      <c r="B104" t="s">
+        <v>152</v>
+      </c>
       <c r="C104">
+        <v>100</v>
+      </c>
+      <c r="D104">
         <v>0.38</v>
       </c>
-      <c r="D104">
+      <c r="E104">
         <v>9.51</v>
       </c>
-      <c r="E104">
+      <c r="F104">
         <v>13.06</v>
       </c>
-      <c r="F104">
+      <c r="G104">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G104">
+      <c r="H104">
         <v>0.79</v>
       </c>
-      <c r="H104">
+      <c r="I104">
         <v>0.09</v>
       </c>
-      <c r="I104">
+      <c r="J104">
         <v>0.04</v>
       </c>
-      <c r="J104">
+      <c r="K104">
         <v>19.399999999999999</v>
-      </c>
-      <c r="K104">
-        <v>19.48</v>
       </c>
       <c r="L104">
         <v>19.48</v>
       </c>
       <c r="M104">
+        <v>19.48</v>
+      </c>
+      <c r="N104">
         <v>13.09</v>
       </c>
-      <c r="N104">
+      <c r="O104">
         <v>23.42</v>
       </c>
-      <c r="O104">
+      <c r="P104">
         <v>45.3</v>
       </c>
-      <c r="P104">
+      <c r="Q104">
         <v>44.92</v>
       </c>
     </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>121</v>
       </c>
+      <c r="B105" t="s">
+        <v>152</v>
+      </c>
       <c r="C105">
+        <v>100</v>
+      </c>
+      <c r="D105">
         <v>0.34</v>
       </c>
-      <c r="D105">
+      <c r="E105">
         <v>9.89</v>
       </c>
-      <c r="E105">
+      <c r="F105">
         <v>5.23</v>
       </c>
-      <c r="F105">
+      <c r="G105">
         <v>0.63</v>
       </c>
-      <c r="G105">
+      <c r="H105">
         <v>0.8</v>
       </c>
-      <c r="H105">
+      <c r="I105">
         <v>0.1</v>
       </c>
-      <c r="I105">
+      <c r="J105">
         <v>0.04</v>
       </c>
-      <c r="J105">
+      <c r="K105">
         <v>22.19</v>
-      </c>
-      <c r="K105">
-        <v>22.29</v>
       </c>
       <c r="L105">
         <v>22.29</v>
       </c>
       <c r="M105">
+        <v>22.29</v>
+      </c>
+      <c r="N105">
         <v>5.27</v>
       </c>
-      <c r="N105">
+      <c r="O105">
         <v>25.24</v>
       </c>
-      <c r="O105">
+      <c r="P105">
         <v>56.81</v>
       </c>
-      <c r="P105">
+      <c r="Q105">
         <v>56.38</v>
       </c>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>122</v>
       </c>
+      <c r="B106" t="s">
+        <v>152</v>
+      </c>
       <c r="C106">
+        <v>100</v>
+      </c>
+      <c r="D106">
         <v>0.35</v>
       </c>
-      <c r="D106">
+      <c r="E106">
         <v>10.73</v>
       </c>
-      <c r="E106">
+      <c r="F106">
         <v>6.27</v>
       </c>
-      <c r="F106">
+      <c r="G106">
         <v>0.66</v>
       </c>
-      <c r="G106">
+      <c r="H106">
         <v>0.89</v>
       </c>
-      <c r="H106">
+      <c r="I106">
         <v>0.1</v>
       </c>
-      <c r="I106">
+      <c r="J106">
         <v>0.04</v>
       </c>
-      <c r="J106">
+      <c r="K106">
         <v>21.59</v>
-      </c>
-      <c r="K106">
-        <v>21.69</v>
       </c>
       <c r="L106">
         <v>21.69</v>
       </c>
       <c r="M106">
+        <v>21.69</v>
+      </c>
+      <c r="N106">
         <v>6.31</v>
       </c>
-      <c r="N106">
+      <c r="O106">
         <v>25.63</v>
       </c>
-      <c r="O106">
+      <c r="P106">
         <v>53.68</v>
       </c>
-      <c r="P106">
+      <c r="Q106">
         <v>53.25</v>
       </c>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>123</v>
       </c>
+      <c r="B107" t="s">
+        <v>152</v>
+      </c>
       <c r="C107">
+        <v>250</v>
+      </c>
+      <c r="D107">
         <v>0.42</v>
       </c>
-      <c r="D107">
+      <c r="E107">
         <v>11.81</v>
       </c>
-      <c r="E107">
+      <c r="F107">
         <v>10.18</v>
       </c>
-      <c r="F107">
+      <c r="G107">
         <v>0.64</v>
       </c>
-      <c r="G107">
+      <c r="H107">
         <v>0.89</v>
       </c>
-      <c r="H107">
+      <c r="I107">
         <v>0.12</v>
       </c>
-      <c r="I107">
+      <c r="J107">
         <v>0.04</v>
       </c>
-      <c r="J107">
+      <c r="K107">
         <v>13.07</v>
-      </c>
-      <c r="K107">
-        <v>13.18</v>
       </c>
       <c r="L107">
         <v>13.18</v>
       </c>
       <c r="M107">
+        <v>13.18</v>
+      </c>
+      <c r="N107">
         <v>10.01</v>
       </c>
-      <c r="N107">
+      <c r="O107">
         <v>19.809999999999999</v>
       </c>
-      <c r="O107">
+      <c r="P107">
         <v>44.58</v>
       </c>
-      <c r="P107">
+      <c r="Q107">
         <v>44.26</v>
       </c>
     </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>124</v>
       </c>
+      <c r="B108" t="s">
+        <v>152</v>
+      </c>
       <c r="C108">
+        <v>250</v>
+      </c>
+      <c r="D108">
         <v>0.54</v>
       </c>
-      <c r="D108">
+      <c r="E108">
         <v>10.19</v>
       </c>
-      <c r="E108">
+      <c r="F108">
         <v>21.37</v>
       </c>
-      <c r="F108">
+      <c r="G108">
         <v>0.59</v>
       </c>
-      <c r="G108">
+      <c r="H108">
         <v>0.91</v>
       </c>
-      <c r="H108">
+      <c r="I108">
         <v>0.1</v>
       </c>
-      <c r="I108">
+      <c r="J108">
         <v>0.05</v>
       </c>
-      <c r="J108">
+      <c r="K108">
         <v>11.45</v>
-      </c>
-      <c r="K108">
-        <v>11.53</v>
       </c>
       <c r="L108">
         <v>11.53</v>
       </c>
       <c r="M108">
+        <v>11.53</v>
+      </c>
+      <c r="N108">
         <v>20.99</v>
       </c>
-      <c r="N108">
+      <c r="O108">
         <v>19.45</v>
       </c>
-      <c r="O108">
+      <c r="P108">
         <v>29.28</v>
       </c>
-      <c r="P108">
+      <c r="Q108">
         <v>29.05</v>
       </c>
     </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>125</v>
       </c>
+      <c r="B109" t="s">
+        <v>152</v>
+      </c>
       <c r="C109">
+        <v>250</v>
+      </c>
+      <c r="D109">
         <v>0.66</v>
       </c>
-      <c r="D109">
+      <c r="E109">
         <v>10.6</v>
       </c>
-      <c r="E109">
+      <c r="F109">
         <v>13.35</v>
       </c>
-      <c r="F109">
+      <c r="G109">
         <v>0.49</v>
       </c>
-      <c r="G109">
+      <c r="H109">
         <v>0.78</v>
       </c>
-      <c r="H109">
+      <c r="I109">
         <v>0.09</v>
       </c>
-      <c r="I109">
+      <c r="J109">
         <v>0.03</v>
       </c>
-      <c r="J109">
+      <c r="K109">
         <v>7.12</v>
-      </c>
-      <c r="K109">
-        <v>7.18</v>
       </c>
       <c r="L109">
         <v>7.18</v>
       </c>
       <c r="M109">
+        <v>7.18</v>
+      </c>
+      <c r="N109">
         <v>13.12</v>
       </c>
-      <c r="N109">
+      <c r="O109">
         <v>12.69</v>
       </c>
-      <c r="O109">
+      <c r="P109">
         <v>18.95</v>
       </c>
-      <c r="P109">
+      <c r="Q109">
         <v>18.8</v>
       </c>
     </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>126</v>
       </c>
+      <c r="B110" t="s">
+        <v>152</v>
+      </c>
       <c r="C110">
+        <v>500</v>
+      </c>
+      <c r="D110">
         <v>0.43</v>
       </c>
-      <c r="D110">
+      <c r="E110">
         <v>10.5</v>
       </c>
-      <c r="E110">
+      <c r="F110">
         <v>9.9600000000000009</v>
       </c>
-      <c r="F110">
+      <c r="G110">
         <v>0.62</v>
       </c>
-      <c r="G110">
+      <c r="H110">
         <v>1.02</v>
       </c>
-      <c r="H110">
+      <c r="I110">
         <v>0.12</v>
       </c>
-      <c r="I110">
+      <c r="J110">
         <v>0.05</v>
       </c>
-      <c r="J110">
+      <c r="K110">
         <v>11.68</v>
-      </c>
-      <c r="K110">
-        <v>11.78</v>
       </c>
       <c r="L110">
         <v>11.78</v>
       </c>
       <c r="M110">
+        <v>11.78</v>
+      </c>
+      <c r="N110">
         <v>9.75</v>
       </c>
-      <c r="N110">
+      <c r="O110">
         <v>17.72</v>
       </c>
-      <c r="O110">
+      <c r="P110">
         <v>49.37</v>
       </c>
-      <c r="P110">
+      <c r="Q110">
         <v>49.05</v>
       </c>
     </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>127</v>
       </c>
+      <c r="B111" t="s">
+        <v>152</v>
+      </c>
       <c r="C111">
+        <v>500</v>
+      </c>
+      <c r="D111">
         <v>0.43</v>
       </c>
-      <c r="D111">
+      <c r="E111">
         <v>11.29</v>
       </c>
-      <c r="E111">
+      <c r="F111">
         <v>9.1199999999999992</v>
       </c>
-      <c r="F111">
+      <c r="G111">
         <v>0.67</v>
       </c>
-      <c r="G111">
+      <c r="H111">
         <v>0.93</v>
       </c>
-      <c r="H111">
+      <c r="I111">
         <v>0.13</v>
       </c>
-      <c r="I111">
+      <c r="J111">
         <v>0.05</v>
       </c>
-      <c r="J111">
+      <c r="K111">
         <v>12.36</v>
-      </c>
-      <c r="K111">
-        <v>12.47</v>
       </c>
       <c r="L111">
         <v>12.47</v>
       </c>
       <c r="M111">
+        <v>12.47</v>
+      </c>
+      <c r="N111">
         <v>9.0299999999999994</v>
       </c>
-      <c r="N111">
+      <c r="O111">
         <v>18.3</v>
       </c>
-      <c r="O111">
+      <c r="P111">
         <v>48.88</v>
       </c>
-      <c r="P111">
+      <c r="Q111">
         <v>48.54</v>
       </c>
     </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>128</v>
       </c>
+      <c r="B112" t="s">
+        <v>152</v>
+      </c>
       <c r="C112">
+        <v>500</v>
+      </c>
+      <c r="D112">
         <v>0.43</v>
       </c>
-      <c r="D112">
+      <c r="E112">
         <v>12.07</v>
       </c>
-      <c r="E112">
+      <c r="F112">
         <v>11.11</v>
       </c>
-      <c r="F112">
+      <c r="G112">
         <v>0.65</v>
       </c>
-      <c r="G112">
+      <c r="H112">
         <v>0.96</v>
       </c>
-      <c r="H112">
+      <c r="I112">
         <v>0.12</v>
       </c>
-      <c r="I112">
+      <c r="J112">
         <v>0.05</v>
       </c>
-      <c r="J112">
+      <c r="K112">
         <v>11.4</v>
-      </c>
-      <c r="K112">
-        <v>11.5</v>
       </c>
       <c r="L112">
         <v>11.5</v>
       </c>
       <c r="M112">
+        <v>11.5</v>
+      </c>
+      <c r="N112">
         <v>10.88</v>
       </c>
-      <c r="N112">
+      <c r="O112">
         <v>18.27</v>
       </c>
-      <c r="O112">
+      <c r="P112">
         <v>44.54</v>
       </c>
-      <c r="P112">
+      <c r="Q112">
         <v>44.24</v>
       </c>
     </row>
